--- a/src/test/resources/rewards_platform/test_data/LMS File Record Layouts.xlsx
+++ b/src/test/resources/rewards_platform/test_data/LMS File Record Layouts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariatkacheva/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariatkacheva/Documents/workspace/rewards_platform/src/test/resources/rewards_platform/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="11380" windowHeight="5060" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="11380" windowHeight="8320" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="QPQP" sheetId="1" r:id="rId1"/>
@@ -84,11 +84,11 @@
     <definedName name="Z_DA9EBB5A_EE92_41AE_B134_012594BFFC70_.wvu.FilterData" localSheetId="1" hidden="1">QPQB!$C$6:$I$131</definedName>
     <definedName name="Z_DA9EBB5A_EE92_41AE_B134_012594BFFC70_.wvu.FilterData" localSheetId="0" hidden="1">QPQP!$B$5:$H$184</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="bjutta - Personal View" guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="6"/>
+    <customWorkbookView name="gpadhiar - Personal View" guid="{99249448-FD30-4600-8F88-D8162E1600C3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="7"/>
     <customWorkbookView name="jdutta - Personal View" guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="1"/>
-    <customWorkbookView name="gpadhiar - Personal View" guid="{99249448-FD30-4600-8F88-D8162E1600C3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="7"/>
-    <customWorkbookView name="bjutta - Personal View" guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="6"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -5685,40 +5685,19 @@
     <t>Assumed Decimal</t>
   </si>
   <si>
-    <t>QMPA-RECORD</t>
-  </si>
-  <si>
     <t>Rewards Account (QMPA) record.</t>
   </si>
   <si>
-    <t>QMPA-KEY</t>
-  </si>
-  <si>
     <t>Rewards Account (QMPA) key.</t>
   </si>
   <si>
-    <t>QMPA-KEY-ORG-ACCT</t>
-  </si>
-  <si>
-    <t>QMPA-ORG</t>
-  </si>
-  <si>
     <t>Organization number data.</t>
   </si>
   <si>
-    <t>QMPA-ACCT</t>
-  </si>
-  <si>
     <t>Account Number</t>
   </si>
   <si>
-    <t>QMPA-SCHEME-ID</t>
-  </si>
-  <si>
     <t>Scheme Number associated with the Rewards Program</t>
-  </si>
-  <si>
-    <t>QMPA-ADD-STATUS</t>
   </si>
   <si>
     <t>Add Status (99 = complete)</t>
@@ -8028,6 +8007,27 @@
   </si>
   <si>
     <t>QTGI-SK-TXN-CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMPA-RECORD                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMPA-KEY                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMPA-KEY-ORG-ACCT                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMPA-ORG                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMPA-ACCT                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMPA-SCHEME-ID                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMPA-ADD-STATUS                     </t>
   </si>
 </sst>
 </file>
@@ -13976,9 +13976,9 @@
   </sheetData>
   <autoFilter ref="B5:H184"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1">
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter>
@@ -13996,9 +13996,9 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter>
@@ -14052,7 +14052,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="152" t="s">
-        <v>2321</v>
+        <v>2314</v>
       </c>
       <c r="C2" s="153"/>
       <c r="D2" s="153"/>
@@ -14061,7 +14061,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>2322</v>
+        <v>2315</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>2323</v>
+        <v>2316</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
@@ -14121,7 +14121,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>2324</v>
+        <v>2317</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>401</v>
@@ -14140,7 +14140,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>2332</v>
+        <v>2325</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>401</v>
@@ -14159,7 +14159,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>2333</v>
+        <v>2326</v>
       </c>
       <c r="C10" s="4">
         <v>999</v>
@@ -14180,7 +14180,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>2325</v>
+        <v>2318</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>424</v>
@@ -14201,7 +14201,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>2326</v>
+        <v>2319</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>401</v>
@@ -14220,7 +14220,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>2327</v>
+        <v>2320</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>486</v>
@@ -14241,7 +14241,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>2328</v>
+        <v>2321</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>401</v>
@@ -14260,7 +14260,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>2334</v>
+        <v>2327</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>413</v>
@@ -14281,7 +14281,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>2335</v>
+        <v>2328</v>
       </c>
       <c r="C16" s="4">
         <v>99</v>
@@ -14302,7 +14302,7 @@
     </row>
     <row r="17" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>2336</v>
+        <v>2329</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>1197</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="18" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>2337</v>
+        <v>2330</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>1198</v>
@@ -14365,7 +14365,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>2329</v>
+        <v>2322</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>489</v>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="21" spans="2:8" ht="56" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>2330</v>
+        <v>2323</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>489</v>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="22" spans="2:8" ht="56" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>2331</v>
+        <v>2324</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>489</v>
@@ -15211,13 +15211,14 @@
   </sheetData>
   <autoFilter ref="B5:H35"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A13">
-      <selection activeCell="I28" sqref="I28"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:H1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A10">
       <selection activeCell="C26" sqref="C26"/>
@@ -15227,14 +15228,13 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A13">
+      <selection activeCell="I28" sqref="I28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:H1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -22527,7 +22527,7 @@
   <dimension ref="A1:J2333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22582,7 +22582,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>1738</v>
+        <v>2331</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>1264</v>
@@ -22597,7 +22597,7 @@
         <v>764</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -22605,7 +22605,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>1740</v>
+        <v>2332</v>
       </c>
       <c r="C3" s="53" t="s">
         <v>1264</v>
@@ -22620,7 +22620,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -22628,7 +22628,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>1742</v>
+        <v>2333</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>1264</v>
@@ -22643,7 +22643,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -22651,7 +22651,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>1743</v>
+        <v>2334</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>1276</v>
@@ -22666,7 +22666,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -22674,7 +22674,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>1745</v>
+        <v>2335</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>1264</v>
@@ -22689,7 +22689,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -22697,7 +22697,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>1747</v>
+        <v>2336</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>1264</v>
@@ -22712,7 +22712,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="91" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -22720,7 +22720,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>1749</v>
+        <v>2337</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>1276</v>
@@ -22735,10 +22735,10 @@
         <v>29</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
       <c r="J8" s="65" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.2">
@@ -22746,7 +22746,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>1264</v>
@@ -22764,7 +22764,7 @@
         <v>1634</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -22772,7 +22772,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>1264</v>
@@ -22795,7 +22795,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>1308</v>
@@ -22818,7 +22818,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>1264</v>
@@ -22833,10 +22833,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -22844,7 +22844,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>1264</v>
@@ -22859,10 +22859,10 @@
         <v>39</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -22870,7 +22870,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>1308</v>
@@ -22885,7 +22885,7 @@
         <v>43</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -22893,7 +22893,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>1264</v>
@@ -22908,7 +22908,7 @@
         <v>68</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -22916,7 +22916,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>1264</v>
@@ -22931,7 +22931,7 @@
         <v>69</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -22939,7 +22939,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>1308</v>
@@ -22954,7 +22954,7 @@
         <v>73</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -22962,7 +22962,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>1308</v>
@@ -22977,7 +22977,7 @@
         <v>82</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -22985,7 +22985,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>1772</v>
+        <v>1765</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>1308</v>
@@ -23000,7 +23000,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -23008,7 +23008,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>1308</v>
@@ -23023,7 +23023,7 @@
         <v>90</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -23031,7 +23031,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>1264</v>
@@ -23046,7 +23046,7 @@
         <v>172</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -23054,7 +23054,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>1264</v>
@@ -23077,7 +23077,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>1308</v>
@@ -23092,7 +23092,7 @@
         <v>99</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -23100,7 +23100,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="C24" s="53" t="s">
         <v>1308</v>
@@ -23115,7 +23115,7 @@
         <v>108</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -23123,7 +23123,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>1308</v>
@@ -23138,7 +23138,7 @@
         <v>117</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -23146,7 +23146,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>1308</v>
@@ -23161,7 +23161,7 @@
         <v>126</v>
       </c>
       <c r="I26" s="62" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -23169,7 +23169,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>1308</v>
@@ -23184,7 +23184,7 @@
         <v>135</v>
       </c>
       <c r="I27" s="62" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -23192,7 +23192,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>1789</v>
+        <v>1782</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>1308</v>
@@ -23207,7 +23207,7 @@
         <v>144</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -23215,7 +23215,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="C29" s="53" t="s">
         <v>1308</v>
@@ -23230,7 +23230,7 @@
         <v>153</v>
       </c>
       <c r="I29" s="62" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -23238,7 +23238,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="C30" s="53" t="s">
         <v>1308</v>
@@ -23253,7 +23253,7 @@
         <v>162</v>
       </c>
       <c r="I30" s="62" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -23261,7 +23261,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>1264</v>
@@ -23276,10 +23276,10 @@
         <v>163</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
       <c r="J31" s="65" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -23287,7 +23287,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>1308</v>
@@ -23302,7 +23302,7 @@
         <v>172</v>
       </c>
       <c r="I32" s="64" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="33" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23310,7 +23310,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>1264</v>
@@ -23327,7 +23327,7 @@
         <v>262</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="34" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23335,7 +23335,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>1264</v>
@@ -23360,7 +23360,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="C35" s="53" t="s">
         <v>1308</v>
@@ -23377,7 +23377,7 @@
         <v>181</v>
       </c>
       <c r="I35" s="91" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="36" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23385,7 +23385,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
       <c r="C36" s="53" t="s">
         <v>1308</v>
@@ -23402,7 +23402,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="91" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="37" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23410,7 +23410,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>1308</v>
@@ -23427,7 +23427,7 @@
         <v>199</v>
       </c>
       <c r="I37" s="91" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="38" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23435,7 +23435,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="76" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>1308</v>
@@ -23452,7 +23452,7 @@
         <v>208</v>
       </c>
       <c r="I38" s="91" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="39" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23460,7 +23460,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="76" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>1308</v>
@@ -23477,7 +23477,7 @@
         <v>217</v>
       </c>
       <c r="I39" s="91" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="40" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23485,7 +23485,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>1308</v>
@@ -23502,7 +23502,7 @@
         <v>226</v>
       </c>
       <c r="I40" s="91" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="41" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23510,7 +23510,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>1308</v>
@@ -23527,7 +23527,7 @@
         <v>235</v>
       </c>
       <c r="I41" s="91" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="42" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23535,7 +23535,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>1817</v>
+        <v>1810</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>1308</v>
@@ -23552,7 +23552,7 @@
         <v>244</v>
       </c>
       <c r="I42" s="91" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="43" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23560,7 +23560,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>1308</v>
@@ -23577,7 +23577,7 @@
         <v>253</v>
       </c>
       <c r="I43" s="91" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="44" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23585,7 +23585,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="76" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="C44" s="53" t="s">
         <v>1308</v>
@@ -23602,7 +23602,7 @@
         <v>262</v>
       </c>
       <c r="I44" s="91" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="45" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23610,7 +23610,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="76" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="C45" s="53" t="s">
         <v>1264</v>
@@ -23627,7 +23627,7 @@
         <v>274</v>
       </c>
       <c r="I45" s="64" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="46" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23635,7 +23635,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="C46" s="53" t="s">
         <v>1276</v>
@@ -23652,7 +23652,7 @@
         <v>264</v>
       </c>
       <c r="I46" s="64" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="47" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23660,7 +23660,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="C47" s="53" t="s">
         <v>1276</v>
@@ -23677,7 +23677,7 @@
         <v>266</v>
       </c>
       <c r="I47" s="64" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="48" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23685,7 +23685,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="C48" s="53" t="s">
         <v>1308</v>
@@ -23702,7 +23702,7 @@
         <v>270</v>
       </c>
       <c r="I48" s="64" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -23710,7 +23710,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="76" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
       <c r="C49" s="53" t="s">
         <v>1308</v>
@@ -23725,7 +23725,7 @@
         <v>274</v>
       </c>
       <c r="I49" s="64" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -23733,7 +23733,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="76" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
       <c r="C50" s="53" t="s">
         <v>1308</v>
@@ -23748,7 +23748,7 @@
         <v>278</v>
       </c>
       <c r="I50" s="64" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -23756,7 +23756,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
       <c r="C51" s="53" t="s">
         <v>1308</v>
@@ -23771,7 +23771,7 @@
         <v>282</v>
       </c>
       <c r="I51" s="64" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -23779,7 +23779,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="76" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
       <c r="C52" s="53" t="s">
         <v>1264</v>
@@ -23794,10 +23794,10 @@
         <v>283</v>
       </c>
       <c r="I52" s="64" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
       <c r="J52" s="65" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -23805,7 +23805,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>1840</v>
+        <v>1833</v>
       </c>
       <c r="C53" s="53" t="s">
         <v>1264</v>
@@ -23820,10 +23820,10 @@
         <v>284</v>
       </c>
       <c r="I53" s="64" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="J53" s="65" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -23831,7 +23831,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
       <c r="C54" s="53" t="s">
         <v>1264</v>
@@ -23846,10 +23846,10 @@
         <v>285</v>
       </c>
       <c r="I54" s="64" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
       <c r="J54" s="65" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -23857,7 +23857,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="76" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="C55" s="53" t="s">
         <v>1264</v>
@@ -23872,10 +23872,10 @@
         <v>286</v>
       </c>
       <c r="I55" s="64" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
       <c r="J55" s="65" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -23883,7 +23883,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="76" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="C56" s="53" t="s">
         <v>1308</v>
@@ -23898,7 +23898,7 @@
         <v>295</v>
       </c>
       <c r="I56" s="64" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -23906,7 +23906,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="C57" s="53" t="s">
         <v>1276</v>
@@ -23921,7 +23921,7 @@
         <v>297</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -23929,7 +23929,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="C58" s="53" t="s">
         <v>1276</v>
@@ -23944,7 +23944,7 @@
         <v>299</v>
       </c>
       <c r="I58" s="64" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="90" x14ac:dyDescent="0.2">
@@ -23952,7 +23952,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="76" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="C59" s="53" t="s">
         <v>1264</v>
@@ -23967,10 +23967,10 @@
         <v>300</v>
       </c>
       <c r="I59" s="64" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
       <c r="J59" s="65" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -23978,7 +23978,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="76" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="C60" s="53" t="s">
         <v>1276</v>
@@ -23993,7 +23993,7 @@
         <v>302</v>
       </c>
       <c r="I60" s="64" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -24001,7 +24001,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="C61" s="53" t="s">
         <v>1264</v>
@@ -24021,7 +24021,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="C62" s="53" t="s">
         <v>1308</v>
@@ -24036,7 +24036,7 @@
         <v>349</v>
       </c>
       <c r="I62" s="64" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -24044,7 +24044,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="C63" s="53" t="s">
         <v>1308</v>
@@ -24059,7 +24059,7 @@
         <v>353</v>
       </c>
       <c r="I63" s="64" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -24067,7 +24067,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="C64" s="53" t="s">
         <v>1264</v>
@@ -24082,10 +24082,10 @@
         <v>359</v>
       </c>
       <c r="I64" s="64" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="J64" s="65" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -24093,7 +24093,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="C65" s="53" t="s">
         <v>1308</v>
@@ -24108,7 +24108,7 @@
         <v>368</v>
       </c>
       <c r="I65" s="64" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -24116,7 +24116,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="76" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="C66" s="53" t="s">
         <v>1264</v>
@@ -24131,7 +24131,7 @@
         <v>372</v>
       </c>
       <c r="I66" s="64" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -24139,7 +24139,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="76" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="C67" s="53" t="s">
         <v>1308</v>
@@ -24154,7 +24154,7 @@
         <v>376</v>
       </c>
       <c r="I67" s="64" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24162,7 +24162,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="76" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
       <c r="C68" s="53" t="s">
         <v>1264</v>
@@ -24177,10 +24177,10 @@
         <v>377</v>
       </c>
       <c r="I68" s="64" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="J68" s="65" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -24188,7 +24188,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="76" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
       <c r="C69" s="53" t="s">
         <v>1308</v>
@@ -24203,7 +24203,7 @@
         <v>381</v>
       </c>
       <c r="I69" s="64" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -24211,7 +24211,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
       <c r="C70" s="53" t="s">
         <v>1308</v>
@@ -24226,7 +24226,7 @@
         <v>385</v>
       </c>
       <c r="I70" s="64" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -24234,7 +24234,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
       <c r="C71" s="53" t="s">
         <v>1308</v>
@@ -24249,7 +24249,7 @@
         <v>394</v>
       </c>
       <c r="I71" s="64" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -24257,7 +24257,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
       <c r="C72" s="53" t="s">
         <v>1276</v>
@@ -24272,7 +24272,7 @@
         <v>396</v>
       </c>
       <c r="I72" s="64" t="s">
-        <v>1884</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -24280,7 +24280,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="76" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
       <c r="C73" s="53" t="s">
         <v>1308</v>
@@ -24295,7 +24295,7 @@
         <v>400</v>
       </c>
       <c r="I73" s="64" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24303,7 +24303,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="76" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="C74" s="53" t="s">
         <v>1264</v>
@@ -24318,10 +24318,10 @@
         <v>401</v>
       </c>
       <c r="I74" s="64" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="J74" s="65" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -24329,7 +24329,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="76" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="C75" s="53" t="s">
         <v>1264</v>
@@ -24344,7 +24344,7 @@
         <v>474</v>
       </c>
       <c r="I75" s="64" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -24352,7 +24352,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="C76" s="53" t="s">
         <v>1264</v>
@@ -24375,7 +24375,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="76" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="C77" s="53" t="s">
         <v>1308</v>
@@ -24390,7 +24390,7 @@
         <v>410</v>
       </c>
       <c r="I77" s="62" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -24398,7 +24398,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="C78" s="53" t="s">
         <v>1308</v>
@@ -24413,7 +24413,7 @@
         <v>419</v>
       </c>
       <c r="I78" s="62" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -24421,7 +24421,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="C79" s="53" t="s">
         <v>1308</v>
@@ -24436,7 +24436,7 @@
         <v>428</v>
       </c>
       <c r="I79" s="62" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -24444,7 +24444,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="76" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="C80" s="53" t="s">
         <v>1308</v>
@@ -24459,7 +24459,7 @@
         <v>437</v>
       </c>
       <c r="I80" s="62" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -24467,7 +24467,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="76" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="C81" s="53" t="s">
         <v>1308</v>
@@ -24482,7 +24482,7 @@
         <v>446</v>
       </c>
       <c r="I81" s="62" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -24490,7 +24490,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="C82" s="53" t="s">
         <v>1308</v>
@@ -24505,7 +24505,7 @@
         <v>455</v>
       </c>
       <c r="I82" s="62" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -24513,7 +24513,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
       <c r="C83" s="53" t="s">
         <v>1308</v>
@@ -24528,7 +24528,7 @@
         <v>464</v>
       </c>
       <c r="I83" s="62" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -24536,7 +24536,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="76" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="C84" s="53" t="s">
         <v>1308</v>
@@ -24551,7 +24551,7 @@
         <v>473</v>
       </c>
       <c r="I84" s="62" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24559,7 +24559,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="C85" s="53" t="s">
         <v>1264</v>
@@ -24574,10 +24574,10 @@
         <v>474</v>
       </c>
       <c r="I85" s="64" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
       <c r="J85" s="65" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24585,7 +24585,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="76" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="C86" s="53" t="s">
         <v>1264</v>
@@ -24600,10 +24600,10 @@
         <v>475</v>
       </c>
       <c r="I86" s="64" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="J86" s="65" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -24611,7 +24611,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="76" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="C87" s="53" t="s">
         <v>1308</v>
@@ -24626,7 +24626,7 @@
         <v>479</v>
       </c>
       <c r="I87" s="64" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -24634,7 +24634,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
       <c r="C88" s="53" t="s">
         <v>1308</v>
@@ -24654,7 +24654,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="76" t="s">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="C89" s="92" t="s">
         <v>1308</v>
@@ -24671,7 +24671,7 @@
         <v>497</v>
       </c>
       <c r="I89" s="91" t="s">
-        <v>1919</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24679,7 +24679,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="76" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="C90" s="53" t="s">
         <v>1264</v>
@@ -24694,10 +24694,10 @@
         <v>498</v>
       </c>
       <c r="I90" s="64" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
       <c r="J90" s="65" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -24705,7 +24705,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="76" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="C91" s="53" t="s">
         <v>1264</v>
@@ -24720,10 +24720,10 @@
         <v>499</v>
       </c>
       <c r="I91" s="64" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="J91" s="65" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -24731,7 +24731,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="76" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="C92" s="53" t="s">
         <v>1308</v>
@@ -24746,7 +24746,7 @@
         <v>503</v>
       </c>
       <c r="I92" s="64" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -24754,7 +24754,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="76" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="C93" s="53" t="s">
         <v>1264</v>
@@ -24769,7 +24769,7 @@
         <v>764</v>
       </c>
       <c r="I93" s="64" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -24777,7 +24777,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>1929</v>
+        <v>1922</v>
       </c>
       <c r="C94" s="53" t="s">
         <v>1264</v>
@@ -24792,7 +24792,7 @@
         <v>639</v>
       </c>
       <c r="I94" s="64" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24800,7 +24800,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="76" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="C95" s="53" t="s">
         <v>1264</v>
@@ -24815,10 +24815,10 @@
         <v>504</v>
       </c>
       <c r="I95" s="64" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="J95" s="65" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -24826,7 +24826,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="76" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="C96" s="53" t="s">
         <v>1264</v>
@@ -24846,7 +24846,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="76" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="C97" s="53" t="s">
         <v>1264</v>
@@ -24869,7 +24869,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="76" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="C98" s="53" t="s">
         <v>1308</v>
@@ -24892,7 +24892,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="76" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="C99" s="53" t="s">
         <v>1276</v>
@@ -24915,7 +24915,7 @@
         <v>4</v>
       </c>
       <c r="B100" s="76" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="C100" s="53" t="s">
         <v>1276</v>
@@ -24938,7 +24938,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="76" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="C101" s="53" t="s">
         <v>1264</v>
@@ -24961,7 +24961,7 @@
         <v>4</v>
       </c>
       <c r="B102" s="76" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="C102" s="53" t="s">
         <v>1308</v>
@@ -24984,7 +24984,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="76" t="s">
-        <v>1940</v>
+        <v>1933</v>
       </c>
       <c r="C103" s="53" t="s">
         <v>1308</v>
@@ -25007,7 +25007,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="76" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="C104" s="53" t="s">
         <v>1264</v>
@@ -25030,7 +25030,7 @@
         <v>4</v>
       </c>
       <c r="B105" s="76" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="C105" s="53" t="s">
         <v>1308</v>
@@ -25053,7 +25053,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="76" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="C106" s="53" t="s">
         <v>1276</v>
@@ -25101,7 +25101,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="76" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="C108" s="53" t="s">
         <v>1264</v>
@@ -25124,7 +25124,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="76" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="C109" s="53" t="s">
         <v>1276</v>
@@ -25147,7 +25147,7 @@
         <v>4</v>
       </c>
       <c r="B110" s="76" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="C110" s="53" t="s">
         <v>1276</v>
@@ -25170,7 +25170,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="76" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="C111" s="53" t="s">
         <v>1264</v>
@@ -25195,7 +25195,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="76" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="C112" s="53" t="s">
         <v>1264</v>
@@ -25212,7 +25212,7 @@
         <v>699</v>
       </c>
       <c r="I112" s="64" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="113" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -25220,7 +25220,7 @@
         <v>4</v>
       </c>
       <c r="B113" s="76" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
       <c r="C113" s="53" t="s">
         <v>1264</v>
@@ -25245,7 +25245,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="76" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="C114" s="53" t="s">
         <v>1264</v>
@@ -25262,7 +25262,7 @@
         <v>764</v>
       </c>
       <c r="I114" s="64" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="115" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -25270,7 +25270,7 @@
         <v>4</v>
       </c>
       <c r="B115" s="76" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="C115" s="53" t="s">
         <v>1264</v>
@@ -36662,8 +36662,8 @@
   </sheetData>
   <autoFilter ref="C6:I131"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1" topLeftCell="A7">
-      <selection activeCell="I19" sqref="I19:I20"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="I11" sqref="I11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter>
@@ -36680,8 +36680,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="I11" sqref="I11"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1" topLeftCell="A7">
+      <selection activeCell="I19" sqref="I19:I20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter>
@@ -54368,7 +54368,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="97"/>
@@ -54379,7 +54379,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="97"/>
@@ -54408,16 +54408,16 @@
         <v>1190</v>
       </c>
       <c r="E5" s="177" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
       <c r="F5" s="184" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="G5" s="177" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="H5" s="177" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -54433,7 +54433,7 @@
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="179" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="C7" s="180"/>
       <c r="D7" s="181"/>
@@ -54444,10 +54444,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="127" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D8" s="129">
         <v>1</v>
@@ -54462,15 +54462,15 @@
         <v>602</v>
       </c>
       <c r="H8" s="130" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="131" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
       <c r="C9" s="132" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
       <c r="D9" s="133">
         <v>8</v>
@@ -54485,7 +54485,7 @@
         <v>602</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -54493,7 +54493,7 @@
         <v>1219</v>
       </c>
       <c r="C10" s="136" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
       <c r="D10" s="137">
         <v>191</v>
@@ -54508,7 +54508,7 @@
         <v>602</v>
       </c>
       <c r="H10" s="138" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -54524,10 +54524,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="127" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="C12" s="128" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D12" s="129">
         <v>1</v>
@@ -54542,12 +54542,12 @@
         <v>602</v>
       </c>
       <c r="H12" s="130" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="131" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
       <c r="C13" s="132">
         <v>999</v>
@@ -54565,15 +54565,15 @@
         <v>602</v>
       </c>
       <c r="H13" s="139" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="131" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="C14" s="132" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
       <c r="D14" s="133">
         <v>19</v>
@@ -54588,12 +54588,12 @@
         <v>602</v>
       </c>
       <c r="H14" s="139" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="131" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="C15" s="132" t="s">
         <v>1220</v>
@@ -54616,10 +54616,10 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="131" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="C16" s="132" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="D16" s="133">
         <v>4</v>
@@ -54634,15 +54634,15 @@
         <v>602</v>
       </c>
       <c r="H16" s="139" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="131" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
       <c r="C17" s="132" t="s">
-        <v>2182</v>
+        <v>2175</v>
       </c>
       <c r="D17" s="133">
         <v>3</v>
@@ -54657,15 +54657,15 @@
         <v>602</v>
       </c>
       <c r="H17" s="139" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="131" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
       <c r="C18" s="132" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="D18" s="133">
         <v>2</v>
@@ -54680,15 +54680,15 @@
         <v>602</v>
       </c>
       <c r="H18" s="139" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="131" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="C19" s="132" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D19" s="133">
         <v>19</v>
@@ -54703,15 +54703,15 @@
         <v>602</v>
       </c>
       <c r="H19" s="139" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="140" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
       <c r="C20" s="140" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="D20" s="133">
         <v>144</v>
@@ -54726,15 +54726,15 @@
         <v>602</v>
       </c>
       <c r="H20" s="141" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="140" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="C21" s="140" t="s">
-        <v>2038</v>
+        <v>2031</v>
       </c>
       <c r="D21" s="133">
         <v>94</v>
@@ -54749,12 +54749,12 @@
         <v>602</v>
       </c>
       <c r="H21" s="141" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="140" t="s">
-        <v>2192</v>
+        <v>2185</v>
       </c>
       <c r="C22" s="140">
         <v>9</v>
@@ -54772,15 +54772,15 @@
         <v>602</v>
       </c>
       <c r="H22" s="142" t="s">
-        <v>2193</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="140" t="s">
-        <v>2194</v>
+        <v>2187</v>
       </c>
       <c r="C23" s="140" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="D23" s="133">
         <v>93</v>
@@ -54795,15 +54795,15 @@
         <v>602</v>
       </c>
       <c r="H23" s="141" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="140" t="s">
-        <v>2196</v>
+        <v>2189</v>
       </c>
       <c r="C24" s="140" t="s">
-        <v>2197</v>
+        <v>2190</v>
       </c>
       <c r="D24" s="133">
         <v>25</v>
@@ -54818,15 +54818,15 @@
         <v>602</v>
       </c>
       <c r="H24" s="141" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="140" t="s">
-        <v>2198</v>
+        <v>2191</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>2199</v>
+        <v>2192</v>
       </c>
       <c r="D25" s="133">
         <v>25</v>
@@ -54841,15 +54841,15 @@
         <v>602</v>
       </c>
       <c r="H25" s="141" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="140" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
       <c r="C26" s="140" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="D26" s="133">
         <v>25</v>
@@ -54864,12 +54864,12 @@
         <v>602</v>
       </c>
       <c r="H26" s="141" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="143" t="s">
-        <v>2201</v>
+        <v>2194</v>
       </c>
       <c r="C27" s="144" t="s">
         <v>347</v>
@@ -54887,12 +54887,12 @@
         <v>602</v>
       </c>
       <c r="H27" s="146" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="179" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
       <c r="C28" s="180"/>
       <c r="D28" s="181"/>
@@ -54903,10 +54903,10 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="127" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="C29" s="128" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D29" s="129">
         <v>1</v>
@@ -54921,15 +54921,15 @@
         <v>602</v>
       </c>
       <c r="H29" s="130" t="s">
-        <v>2203</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="131" t="s">
-        <v>2204</v>
+        <v>2197</v>
       </c>
       <c r="C30" s="132" t="s">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="D30" s="133">
         <v>8</v>
@@ -54944,15 +54944,15 @@
         <v>602</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="131" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
       <c r="C31" s="132" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="D31" s="133">
         <v>17</v>
@@ -54967,15 +54967,15 @@
         <v>602</v>
       </c>
       <c r="H31" s="147" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="131" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="C32" s="132" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="D32" s="133">
         <v>17</v>
@@ -54990,7 +54990,7 @@
         <v>602</v>
       </c>
       <c r="H32" s="147" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -54998,7 +54998,7 @@
         <v>1219</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>2211</v>
+        <v>2204</v>
       </c>
       <c r="D33" s="150">
         <v>157</v>
@@ -55013,7 +55013,7 @@
         <v>602</v>
       </c>
       <c r="H33" s="151" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
   </sheetData>
@@ -55500,7 +55500,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -55510,7 +55510,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="97"/>
@@ -55534,21 +55534,21 @@
         <v>1216</v>
       </c>
       <c r="D5" s="115" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="E5" s="115" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="F5" s="116" t="s">
         <v>1190</v>
       </c>
       <c r="G5" s="116" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="C6" s="118"/>
       <c r="D6" s="118">
@@ -55564,7 +55564,7 @@
     </row>
     <row r="7" spans="2:7" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="186" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="C7" s="187"/>
       <c r="D7" s="187"/>
@@ -55574,7 +55574,7 @@
     </row>
     <row r="8" spans="2:7" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="119" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="C8" s="120" t="s">
         <v>1225</v>
@@ -55589,12 +55589,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="121" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="186" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="C9" s="187"/>
       <c r="D9" s="187"/>
@@ -55604,7 +55604,7 @@
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="119" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="C10" s="120" t="s">
         <v>1225</v>
@@ -55619,12 +55619,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="122" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="119" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="C11" s="120">
         <v>999</v>
@@ -55644,10 +55644,10 @@
     </row>
     <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="119" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="D12" s="120">
         <v>5</v>
@@ -55659,15 +55659,15 @@
         <v>19</v>
       </c>
       <c r="G12" s="93" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="119" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="C13" s="120" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="D13" s="120">
         <v>24</v>
@@ -55679,12 +55679,12 @@
         <v>5</v>
       </c>
       <c r="G13" s="93" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="119" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="C14" s="120" t="s">
         <v>1225</v>
@@ -55699,15 +55699,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="121" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="119" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="D15" s="120">
         <v>30</v>
@@ -55719,15 +55719,15 @@
         <v>31</v>
       </c>
       <c r="G15" s="121" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="119" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
       <c r="C16" s="120" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="D16" s="120">
         <v>30</v>
@@ -55739,15 +55739,15 @@
         <v>21</v>
       </c>
       <c r="G16" s="121" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="119" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="D17" s="120">
         <v>30</v>
@@ -55759,15 +55759,15 @@
         <v>4</v>
       </c>
       <c r="G17" s="93" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="119" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="D18" s="120">
         <v>34</v>
@@ -55779,15 +55779,15 @@
         <v>17</v>
       </c>
       <c r="G18" s="121" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="119" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="D19" s="120">
         <v>51</v>
@@ -55799,12 +55799,12 @@
         <v>5</v>
       </c>
       <c r="G19" s="121" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="123" t="s">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="C20" s="124" t="s">
         <v>1220</v>
@@ -55819,15 +55819,15 @@
         <v>5</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="123" t="s">
-        <v>2154</v>
+        <v>2147</v>
       </c>
       <c r="C21" s="124" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="D21" s="124">
         <v>56</v>
@@ -55839,15 +55839,15 @@
         <v>5</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="123" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="C22" s="124" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
       <c r="D22" s="124">
         <v>56</v>
@@ -55859,12 +55859,12 @@
         <v>5</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="186" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="C23" s="187"/>
       <c r="D23" s="187"/>
@@ -55874,7 +55874,7 @@
     </row>
     <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="119" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="C24" s="120" t="s">
         <v>1225</v>
@@ -55889,7 +55889,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="122" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -56441,7 +56441,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="97"/>
@@ -56452,7 +56452,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="97"/>
@@ -56487,10 +56487,10 @@
         <v>1218</v>
       </c>
       <c r="G5" s="194" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="H5" s="189" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -56506,7 +56506,7 @@
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="186" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
       <c r="C7" s="191"/>
       <c r="D7" s="187"/>
@@ -56517,10 +56517,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="99" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="D8" s="101">
         <v>1</v>
@@ -56533,15 +56533,15 @@
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="102" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="103" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -56554,7 +56554,7 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="105" t="s">
-        <v>2058</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -56562,7 +56562,7 @@
         <v>817</v>
       </c>
       <c r="C10" s="107" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="D10" s="108">
         <v>51</v>
@@ -56575,12 +56575,12 @@
       </c>
       <c r="G10" s="108"/>
       <c r="H10" s="109" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="186" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="C11" s="191"/>
       <c r="D11" s="187"/>
@@ -56591,10 +56591,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="99" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="D12" s="101">
         <v>1</v>
@@ -56607,12 +56607,12 @@
       </c>
       <c r="G12" s="101"/>
       <c r="H12" s="102" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="103" t="s">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="C13" s="104" t="s">
         <v>1222</v>
@@ -56628,15 +56628,15 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="105" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="103" t="s">
-        <v>2063</v>
+        <v>2056</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -56649,15 +56649,15 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="105" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="103" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D15" s="4">
         <v>19</v>
@@ -56670,15 +56670,15 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="105" t="s">
-        <v>2067</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B16" s="103" t="s">
-        <v>2068</v>
+        <v>2061</v>
       </c>
       <c r="C16" s="104" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -56691,7 +56691,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="110" t="s">
-        <v>2069</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -56712,12 +56712,12 @@
       </c>
       <c r="G17" s="108"/>
       <c r="H17" s="109" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="186" t="s">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="C18" s="191"/>
       <c r="D18" s="187"/>
@@ -56728,10 +56728,10 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="99" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="D19" s="101">
         <v>1</v>
@@ -56744,15 +56744,15 @@
       </c>
       <c r="G19" s="101"/>
       <c r="H19" s="102" t="s">
-        <v>2071</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="103" t="s">
-        <v>2072</v>
+        <v>2065</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>2073</v>
+        <v>2066</v>
       </c>
       <c r="D20" s="4">
         <v>9</v>
@@ -56765,15 +56765,15 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="105" t="s">
-        <v>2074</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="103" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="C21" s="104" t="s">
-        <v>2073</v>
+        <v>2066</v>
       </c>
       <c r="D21" s="4">
         <v>9</v>
@@ -56786,15 +56786,15 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="105" t="s">
-        <v>2045</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="111" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="C22" s="112" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="D22" s="113">
         <v>41</v>
@@ -56807,7 +56807,7 @@
       </c>
       <c r="G22" s="113"/>
       <c r="H22" s="105" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -56973,7 +56973,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="162" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="C1" s="163"/>
       <c r="D1" s="163"/>
@@ -56984,7 +56984,7 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -57019,10 +57019,10 @@
         <v>1218</v>
       </c>
       <c r="G4" s="168" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="H4" s="168" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -57047,7 +57047,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="165" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="C7" s="166"/>
       <c r="D7" s="198"/>
@@ -57058,10 +57058,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -57076,15 +57076,15 @@
         <v>602</v>
       </c>
       <c r="H8" s="94" t="s">
-        <v>2081</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>2082</v>
+        <v>2075</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -57099,7 +57099,7 @@
         <v>602</v>
       </c>
       <c r="H9" s="93" t="s">
-        <v>2084</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -57107,7 +57107,7 @@
         <v>1219</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="D10" s="4">
         <v>291</v>
@@ -57122,7 +57122,7 @@
         <v>602</v>
       </c>
       <c r="H10" s="96" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -57138,10 +57138,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -57156,12 +57156,12 @@
         <v>602</v>
       </c>
       <c r="H12" s="96" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>99</v>
@@ -57186,10 +57186,10 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>2087</v>
+        <v>2080</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="D14" s="4">
         <v>19</v>
@@ -57206,15 +57206,15 @@
         <v>602</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>2089</v>
+        <v>2082</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="D15" s="4">
         <v>19</v>
@@ -57231,12 +57231,12 @@
         <v>602</v>
       </c>
       <c r="H15" s="93" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>2091</v>
+        <v>2084</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>391</v>
@@ -57256,12 +57256,12 @@
         <v>602</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>2092</v>
+        <v>2085</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>391</v>
@@ -57286,7 +57286,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>2093</v>
+        <v>2086</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>391</v>
@@ -57306,12 +57306,12 @@
         <v>602</v>
       </c>
       <c r="H18" s="93" t="s">
-        <v>2094</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="49" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -57331,12 +57331,12 @@
         <v>602</v>
       </c>
       <c r="H19" s="95" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>100</v>
@@ -57356,15 +57356,15 @@
         <v>602</v>
       </c>
       <c r="H20" s="95" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
       <c r="D21" s="4">
         <v>23</v>
@@ -57386,10 +57386,10 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="D22" s="4">
         <v>40</v>
@@ -57406,15 +57406,15 @@
         <v>602</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="169" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -57431,12 +57431,12 @@
         <v>602</v>
       </c>
       <c r="H23" s="95" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="37" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>17</v>
@@ -57456,12 +57456,12 @@
         <v>602</v>
       </c>
       <c r="H24" s="95" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>1247</v>
@@ -57484,10 +57484,10 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="37" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
       <c r="D26" s="4">
         <v>7</v>
@@ -57507,10 +57507,10 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="37" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="D27" s="4">
         <v>40</v>
@@ -57532,7 +57532,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>291</v>
@@ -57555,7 +57555,7 @@
     </row>
     <row r="29" spans="2:8" ht="25" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>2113</v>
+        <v>2106</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>17</v>
@@ -57575,12 +57575,12 @@
         <v>602</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>390</v>
@@ -57603,7 +57603,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>17</v>
@@ -57623,12 +57623,12 @@
         <v>602</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>441</v>
@@ -57651,10 +57651,10 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="D33" s="4">
         <v>19</v>
@@ -57677,7 +57677,7 @@
         <v>1219</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="D34" s="4">
         <v>81</v>
@@ -57697,7 +57697,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="165" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="C35" s="166"/>
       <c r="D35" s="198"/>
@@ -57708,7 +57708,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>1225</v>
@@ -57726,15 +57726,15 @@
         <v>602</v>
       </c>
       <c r="H36" s="96" t="s">
-        <v>2048</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="D37" s="4">
         <v>17</v>
@@ -57749,15 +57749,15 @@
         <v>602</v>
       </c>
       <c r="H37" s="96" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="D38" s="4">
         <v>17</v>
@@ -57772,7 +57772,7 @@
         <v>602</v>
       </c>
       <c r="H38" s="96" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -57780,7 +57780,7 @@
         <v>1219</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="D39" s="4">
         <v>265</v>
@@ -57795,7 +57795,7 @@
         <v>602</v>
       </c>
       <c r="H39" s="96" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
   </sheetData>
@@ -57836,7 +57836,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="162" t="s">
-        <v>2212</v>
+        <v>2205</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
@@ -57847,7 +57847,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2213</v>
+        <v>2206</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -57882,10 +57882,10 @@
         <v>1218</v>
       </c>
       <c r="F4" s="168" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="G4" s="168" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -57910,7 +57910,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="165" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="B7" s="166"/>
       <c r="C7" s="198"/>
@@ -57921,7 +57921,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>2239</v>
+        <v>2232</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>441</v>
@@ -57939,7 +57939,7 @@
         <v>602</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>2241</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -57947,7 +57947,7 @@
         <v>1219</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2240</v>
+        <v>2233</v>
       </c>
       <c r="C9" s="4">
         <v>141</v>
@@ -57976,7 +57976,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>99</v>
@@ -57999,10 +57999,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="C12" s="4">
         <v>19</v>
@@ -58017,12 +58017,12 @@
         <v>602</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2231</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1198</v>
@@ -58040,15 +58040,15 @@
         <v>602</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2242</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
@@ -58063,15 +58063,15 @@
         <v>602</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2224</v>
+        <v>2217</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -58086,7 +58086,7 @@
         <v>602</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -58094,7 +58094,7 @@
         <v>1219</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="C16" s="4">
         <v>17</v>
@@ -58110,10 +58110,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>2219</v>
+        <v>2212</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="C17" s="4">
         <v>19</v>
@@ -58128,12 +58128,12 @@
         <v>602</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>99</v>
@@ -58152,15 +58152,15 @@
         <v>602</v>
       </c>
       <c r="G18" s="96" t="s">
-        <v>2232</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2225</v>
+        <v>2218</v>
       </c>
       <c r="C19" s="4">
         <v>60</v>
@@ -58176,15 +58176,15 @@
         <v>602</v>
       </c>
       <c r="G19" s="96" t="s">
-        <v>2233</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
@@ -58200,7 +58200,7 @@
         <v>602</v>
       </c>
       <c r="G20" s="96" t="s">
-        <v>2234</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -58208,7 +58208,7 @@
         <v>1219</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2226</v>
+        <v>2219</v>
       </c>
       <c r="C21" s="4">
         <v>48</v>
@@ -58227,7 +58227,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="165" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="B22" s="166"/>
       <c r="C22" s="198"/>
@@ -58238,10 +58238,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2229</v>
+        <v>2222</v>
       </c>
       <c r="C23" s="4">
         <v>17</v>
@@ -58256,15 +58256,15 @@
         <v>602</v>
       </c>
       <c r="G23" s="96" t="s">
-        <v>2235</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>2228</v>
+        <v>2221</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2229</v>
+        <v>2222</v>
       </c>
       <c r="C24" s="4">
         <v>17</v>
@@ -58279,7 +58279,7 @@
         <v>602</v>
       </c>
       <c r="G24" s="96" t="s">
-        <v>2236</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -58287,7 +58287,7 @@
         <v>1219</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2230</v>
+        <v>2223</v>
       </c>
       <c r="C25" s="4">
         <v>115</v>
@@ -58341,7 +58341,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="162" t="s">
-        <v>2237</v>
+        <v>2230</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
@@ -58352,7 +58352,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2238</v>
+        <v>2231</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -58387,10 +58387,10 @@
         <v>1218</v>
       </c>
       <c r="F4" s="168" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="G4" s="168" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -58415,7 +58415,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="165" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="B7" s="166"/>
       <c r="C7" s="198"/>
@@ -58426,10 +58426,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -58444,15 +58444,15 @@
         <v>602</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>2081</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>2247</v>
+        <v>2240</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -58468,7 +58468,7 @@
         <v>602</v>
       </c>
       <c r="G9" s="93" t="s">
-        <v>2084</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -58476,7 +58476,7 @@
         <v>1219</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="C10" s="4">
         <v>849</v>
@@ -58492,7 +58492,7 @@
         <v>602</v>
       </c>
       <c r="G10" s="96" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -58508,10 +58508,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>2282</v>
+        <v>2275</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="C12" s="4">
         <v>19</v>
@@ -58532,7 +58532,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
@@ -58551,15 +58551,15 @@
         <v>602</v>
       </c>
       <c r="G13" s="93" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>2248</v>
+        <v>2241</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="C14" s="4">
         <v>19</v>
@@ -58575,15 +58575,15 @@
         <v>602</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>2249</v>
+        <v>2242</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C15" s="4">
         <v>40</v>
@@ -58599,15 +58599,15 @@
         <v>602</v>
       </c>
       <c r="G15" s="159" t="s">
-        <v>2288</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>2250</v>
+        <v>2243</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C16" s="4">
         <v>40</v>
@@ -58623,15 +58623,15 @@
         <v>602</v>
       </c>
       <c r="G16" s="159" t="s">
-        <v>2289</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>2251</v>
+        <v>2244</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C17" s="4">
         <v>40</v>
@@ -58647,15 +58647,15 @@
         <v>602</v>
       </c>
       <c r="G17" s="159" t="s">
-        <v>2290</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>2252</v>
+        <v>2245</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C18" s="4">
         <v>40</v>
@@ -58671,15 +58671,15 @@
         <v>602</v>
       </c>
       <c r="G18" s="93" t="s">
-        <v>2313</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C19" s="4">
         <v>40</v>
@@ -58695,15 +58695,15 @@
         <v>602</v>
       </c>
       <c r="G19" s="93" t="s">
-        <v>2314</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>2254</v>
+        <v>2247</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C20" s="4">
         <v>40</v>
@@ -58719,15 +58719,15 @@
         <v>602</v>
       </c>
       <c r="G20" s="95" t="s">
-        <v>2315</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>2255</v>
+        <v>2248</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C21" s="4">
         <v>40</v>
@@ -58743,15 +58743,15 @@
         <v>602</v>
       </c>
       <c r="G21" s="95" t="s">
-        <v>2316</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>2256</v>
+        <v>2249</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C22" s="4">
         <v>40</v>
@@ -58767,15 +58767,15 @@
         <v>602</v>
       </c>
       <c r="G22" s="93" t="s">
-        <v>2317</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>2257</v>
+        <v>2250</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2284</v>
+        <v>2277</v>
       </c>
       <c r="C23" s="4">
         <v>30</v>
@@ -58791,15 +58791,15 @@
         <v>602</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>2318</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>2258</v>
+        <v>2251</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C24" s="4">
         <v>40</v>
@@ -58815,15 +58815,15 @@
         <v>602</v>
       </c>
       <c r="G24" s="160" t="s">
-        <v>2291</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>2259</v>
+        <v>2252</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C25" s="4">
         <v>40</v>
@@ -58839,15 +58839,15 @@
         <v>602</v>
       </c>
       <c r="G25" s="160" t="s">
-        <v>2292</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>2260</v>
+        <v>2253</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
@@ -58863,12 +58863,12 @@
         <v>602</v>
       </c>
       <c r="G26" s="160" t="s">
-        <v>2293</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
-        <v>2261</v>
+        <v>2254</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>99</v>
@@ -58887,15 +58887,15 @@
         <v>602</v>
       </c>
       <c r="G27" s="160" t="s">
-        <v>2294</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
-        <v>2262</v>
+        <v>2255</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="C28" s="4">
         <v>40</v>
@@ -58911,12 +58911,12 @@
         <v>602</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>2319</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>2263</v>
+        <v>2256</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>18</v>
@@ -58935,12 +58935,12 @@
         <v>602</v>
       </c>
       <c r="G29" s="160" t="s">
-        <v>2295</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>18</v>
@@ -58959,12 +58959,12 @@
         <v>602</v>
       </c>
       <c r="G30" s="160" t="s">
-        <v>2296</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>2266</v>
+        <v>2259</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>18</v>
@@ -58980,12 +58980,12 @@
         <v>602</v>
       </c>
       <c r="G31" s="160" t="s">
-        <v>2297</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>61</v>
@@ -59004,12 +59004,12 @@
         <v>602</v>
       </c>
       <c r="G32" s="160" t="s">
-        <v>2298</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>2268</v>
+        <v>2261</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>99</v>
@@ -59028,12 +59028,12 @@
         <v>602</v>
       </c>
       <c r="G33" s="160" t="s">
-        <v>2299</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>2269</v>
+        <v>2262</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
@@ -59052,12 +59052,12 @@
         <v>602</v>
       </c>
       <c r="G34" s="160" t="s">
-        <v>2300</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>17</v>
@@ -59076,15 +59076,15 @@
         <v>602</v>
       </c>
       <c r="G35" s="160" t="s">
-        <v>2301</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>2271</v>
+        <v>2264</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2225</v>
+        <v>2218</v>
       </c>
       <c r="C36" s="4">
         <v>60</v>
@@ -59100,12 +59100,12 @@
         <v>602</v>
       </c>
       <c r="G36" s="160" t="s">
-        <v>2302</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>61</v>
@@ -59124,12 +59124,12 @@
         <v>602</v>
       </c>
       <c r="G37" s="160" t="s">
-        <v>2303</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>2273</v>
+        <v>2266</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>391</v>
@@ -59148,15 +59148,15 @@
         <v>602</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>2304</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
       <c r="C39" s="4">
         <v>9</v>
@@ -59172,15 +59172,15 @@
         <v>602</v>
       </c>
       <c r="G39" s="160" t="s">
-        <v>2305</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="C40" s="4">
         <v>50</v>
@@ -59196,15 +59196,15 @@
         <v>602</v>
       </c>
       <c r="G40" s="160" t="s">
-        <v>2306</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>2276</v>
+        <v>2269</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="C41" s="4">
         <v>50</v>
@@ -59220,12 +59220,12 @@
         <v>602</v>
       </c>
       <c r="G41" s="160" t="s">
-        <v>2307</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>2277</v>
+        <v>2270</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>441</v>
@@ -59244,15 +59244,15 @@
         <v>602</v>
       </c>
       <c r="G42" s="160" t="s">
-        <v>2308</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>2278</v>
+        <v>2271</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="C43" s="4">
         <v>19</v>
@@ -59268,12 +59268,12 @@
         <v>602</v>
       </c>
       <c r="G43" s="160" t="s">
-        <v>2309</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>2279</v>
+        <v>2272</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>390</v>
@@ -59292,12 +59292,12 @@
         <v>602</v>
       </c>
       <c r="G44" s="160" t="s">
-        <v>2310</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>2280</v>
+        <v>2273</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>390</v>
@@ -59316,12 +59316,12 @@
         <v>602</v>
       </c>
       <c r="G45" s="160" t="s">
-        <v>2311</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>18</v>
@@ -59340,7 +59340,7 @@
         <v>602</v>
       </c>
       <c r="G46" s="160" t="s">
-        <v>2312</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -59348,7 +59348,7 @@
         <v>1219</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="C47" s="4">
         <v>19</v>
@@ -59364,12 +59364,12 @@
         <v>602</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="165" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="B48" s="166"/>
       <c r="C48" s="198"/>
@@ -59380,7 +59380,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>1225</v>
@@ -59398,15 +59398,15 @@
         <v>602</v>
       </c>
       <c r="G49" s="96" t="s">
-        <v>2048</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="C50" s="4">
         <v>17</v>
@@ -59421,15 +59421,15 @@
         <v>602</v>
       </c>
       <c r="G50" s="96" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>2265</v>
+        <v>2258</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="C51" s="4">
         <v>17</v>
@@ -59444,7 +59444,7 @@
         <v>602</v>
       </c>
       <c r="G51" s="96" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -59452,7 +59452,7 @@
         <v>1219</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="C52" s="4">
         <v>265</v>
@@ -59467,7 +59467,7 @@
         <v>602</v>
       </c>
       <c r="G52" s="96" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
   </sheetData>
@@ -60019,7 +60019,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="162" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -60030,7 +60030,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -60065,10 +60065,10 @@
         <v>1218</v>
       </c>
       <c r="G5" s="168" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="H5" s="168" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -60093,7 +60093,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="165" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="C8" s="166"/>
       <c r="D8" s="198"/>
@@ -60104,10 +60104,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -60122,15 +60122,15 @@
         <v>602</v>
       </c>
       <c r="H9" s="94" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1962</v>
+        <v>1955</v>
       </c>
       <c r="D10" s="4">
         <v>8</v>
@@ -60145,15 +60145,15 @@
         <v>602</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
@@ -60168,15 +60168,15 @@
         <v>602</v>
       </c>
       <c r="H11" s="93" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="144" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
@@ -60191,7 +60191,7 @@
         <v>602</v>
       </c>
       <c r="H12" s="95" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
@@ -60199,7 +60199,7 @@
         <v>1219</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="D13" s="4">
         <v>250</v>
@@ -60214,12 +60214,12 @@
         <v>602</v>
       </c>
       <c r="H13" s="96" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="165" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="C14" s="166"/>
       <c r="D14" s="198"/>
@@ -60230,10 +60230,10 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -60248,15 +60248,15 @@
         <v>602</v>
       </c>
       <c r="H15" s="94" t="s">
-        <v>1973</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="D16" s="4">
         <v>43</v>
@@ -60271,12 +60271,12 @@
         <v>602</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>1220</v>
@@ -60294,7 +60294,7 @@
         <v>602</v>
       </c>
       <c r="H17" s="93" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -60302,7 +60302,7 @@
         <v>1219</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="D18" s="4">
         <v>226</v>
@@ -60317,7 +60317,7 @@
         <v>602</v>
       </c>
       <c r="H18" s="96" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
@@ -60333,10 +60333,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -60351,15 +60351,15 @@
         <v>602</v>
       </c>
       <c r="H20" s="96" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="36" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -60374,12 +60374,12 @@
         <v>602</v>
       </c>
       <c r="H21" s="95" t="s">
-        <v>1982</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="C22" s="4">
         <v>999</v>
@@ -60402,7 +60402,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
-        <v>1984</v>
+        <v>1977</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>1222</v>
@@ -60420,15 +60420,15 @@
         <v>602</v>
       </c>
       <c r="H23" s="93" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
-        <v>1986</v>
+        <v>1979</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1987</v>
+        <v>1980</v>
       </c>
       <c r="D24" s="4">
         <v>5</v>
@@ -60443,15 +60443,15 @@
         <v>602</v>
       </c>
       <c r="H24" s="93" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="D25" s="4">
         <v>16</v>
@@ -60466,15 +60466,15 @@
         <v>602</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="120" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
@@ -60489,15 +60489,15 @@
         <v>602</v>
       </c>
       <c r="H26" s="95" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="D27" s="4">
         <v>17</v>
@@ -60512,15 +60512,15 @@
         <v>602</v>
       </c>
       <c r="H27" s="93" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="D28" s="4">
         <v>8</v>
@@ -60535,15 +60535,15 @@
         <v>602</v>
       </c>
       <c r="H28" s="93" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="D29" s="4">
         <v>18</v>
@@ -60558,12 +60558,12 @@
         <v>602</v>
       </c>
       <c r="H29" s="93" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>1223</v>
@@ -60581,15 +60581,15 @@
         <v>602</v>
       </c>
       <c r="H30" s="95" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D31" s="4">
         <v>3</v>
@@ -60609,10 +60609,10 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D32" s="4">
         <v>19</v>
@@ -60627,12 +60627,12 @@
         <v>602</v>
       </c>
       <c r="H32" s="93" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1224</v>
@@ -60650,15 +60650,15 @@
         <v>602</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>2012</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D34" s="4">
         <v>19</v>
@@ -60673,15 +60673,15 @@
         <v>602</v>
       </c>
       <c r="H34" s="93" t="s">
-        <v>2014</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="D35" s="4">
         <v>6</v>
@@ -60696,15 +60696,15 @@
         <v>602</v>
       </c>
       <c r="H35" s="93" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="37" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D36" s="4">
         <v>4</v>
@@ -60719,15 +60719,15 @@
         <v>602</v>
       </c>
       <c r="H36" s="93" t="s">
-        <v>2020</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D37" s="4">
         <v>4</v>
@@ -60742,15 +60742,15 @@
         <v>602</v>
       </c>
       <c r="H37" s="93" t="s">
-        <v>2022</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="D38" s="4">
         <v>30</v>
@@ -60765,15 +60765,15 @@
         <v>602</v>
       </c>
       <c r="H38" s="93" t="s">
-        <v>2025</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
-        <v>2026</v>
+        <v>2019</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="D39" s="4">
         <v>49</v>
@@ -60788,15 +60788,15 @@
         <v>602</v>
       </c>
       <c r="H39" s="96" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
-        <v>2029</v>
+        <v>2022</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="D40" s="4">
         <v>19</v>
@@ -60811,15 +60811,15 @@
         <v>602</v>
       </c>
       <c r="H40" s="96" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
-        <v>2030</v>
+        <v>2023</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2031</v>
+        <v>2024</v>
       </c>
       <c r="D41" s="4">
         <v>8</v>
@@ -60834,15 +60834,15 @@
         <v>602</v>
       </c>
       <c r="H41" s="93" t="s">
-        <v>2032</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
-        <v>2033</v>
+        <v>2026</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>2034</v>
+        <v>2027</v>
       </c>
       <c r="D42" s="4">
         <v>11</v>
@@ -60857,15 +60857,15 @@
         <v>602</v>
       </c>
       <c r="H42" s="96" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
-        <v>2035</v>
+        <v>2028</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="D43" s="4">
         <v>15</v>
@@ -60880,12 +60880,12 @@
         <v>602</v>
       </c>
       <c r="H43" s="96" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
-        <v>2036</v>
+        <v>2029</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>874</v>
@@ -60903,15 +60903,15 @@
         <v>602</v>
       </c>
       <c r="H44" s="96" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>2038</v>
+        <v>2031</v>
       </c>
       <c r="D45" s="4">
         <v>15</v>
@@ -60926,15 +60926,15 @@
         <v>602</v>
       </c>
       <c r="H45" s="96" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>2039</v>
+        <v>2032</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>2040</v>
+        <v>2033</v>
       </c>
       <c r="D46" s="4">
         <v>15</v>
@@ -60949,12 +60949,12 @@
         <v>602</v>
       </c>
       <c r="H46" s="96" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="165" t="s">
-        <v>2041</v>
+        <v>2034</v>
       </c>
       <c r="C47" s="166"/>
       <c r="D47" s="166"/>
@@ -60965,7 +60965,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>1225</v>
@@ -60983,15 +60983,15 @@
         <v>602</v>
       </c>
       <c r="H48" s="96" t="s">
-        <v>2042</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="D49" s="4">
         <v>11</v>
@@ -61006,7 +61006,7 @@
         <v>602</v>
       </c>
       <c r="H49" s="93" t="s">
-        <v>2045</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
@@ -61014,7 +61014,7 @@
         <v>1219</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>2046</v>
+        <v>2039</v>
       </c>
       <c r="D50" s="4">
         <v>263</v>
@@ -61029,12 +61029,12 @@
         <v>602</v>
       </c>
       <c r="H50" s="96" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="165" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="C51" s="166"/>
       <c r="D51" s="198"/>
@@ -61045,7 +61045,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>1225</v>
@@ -61063,7 +61063,7 @@
         <v>602</v>
       </c>
       <c r="H52" s="96" t="s">
-        <v>2048</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.15">
@@ -61071,7 +61071,7 @@
         <v>1219</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="D53" s="4">
         <v>274</v>
@@ -61086,16 +61086,11 @@
         <v>602</v>
       </c>
       <c r="H53" s="96" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B51:H51"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -61104,6 +61099,11 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B51:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -61465,8 +61465,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
-      <selection activeCell="H14" sqref="H14"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
@@ -61482,8 +61482,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
-      <selection activeCell="B2" sqref="B2"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
+      <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
@@ -62060,8 +62060,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A11">
-      <selection activeCell="H26" sqref="H26"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
@@ -62077,8 +62077,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A11">
+      <selection activeCell="H26" sqref="H26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
@@ -62622,8 +62622,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A4">
-      <selection activeCell="H9" sqref="H9"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter>
@@ -62639,8 +62639,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A4">
+      <selection activeCell="H9" sqref="H9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter>
@@ -63462,13 +63462,14 @@
   </sheetData>
   <autoFilter ref="B5:H42"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A10">
-      <selection activeCell="H37" sqref="H37"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:H1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A19">
       <selection activeCell="C51" sqref="C51"/>
@@ -63478,14 +63479,13 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A10">
+      <selection activeCell="H37" sqref="H37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:H1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -64101,13 +64101,14 @@
   </sheetData>
   <autoFilter ref="B5:I29"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A16">
-      <selection activeCell="E34" sqref="E34"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:I1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A19">
       <selection activeCell="I29" sqref="I29"/>
@@ -64117,14 +64118,13 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A16">
+      <selection activeCell="E34" sqref="E34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:I1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -65518,26 +65518,10 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A58">
-      <selection activeCell="I11" sqref="I11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-      <headerFooter>
-        <oddFooter>&amp;LCapital One Confidential</oddFooter>
-      </headerFooter>
-    </customSheetView>
-    <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A49">
-      <selection activeCell="E31" sqref="E31"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <headerFooter>
-        <oddFooter>&amp;LCapital One Confidential</oddFooter>
-      </headerFooter>
-    </customSheetView>
     <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" filter="1" showAutoFilter="1">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
@@ -65555,6 +65539,22 @@
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A49">
+      <selection activeCell="E31" sqref="E31"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <headerFooter>
+        <oddFooter>&amp;LCapital One Confidential</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A58">
+      <selection activeCell="I11" sqref="I11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
+      <headerFooter>
+        <oddFooter>&amp;LCapital One Confidential</oddFooter>
+      </headerFooter>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -65602,7 +65602,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>2320</v>
+        <v>2313</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -66071,13 +66071,14 @@
   </sheetData>
   <autoFilter ref="B5:H27"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
-      <selection activeCell="I19" sqref="I19"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:H1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}">
       <selection activeCell="I19" sqref="I19"/>
@@ -66087,14 +66088,13 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
+      <selection activeCell="I19" sqref="I19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:H1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/src/test/resources/rewards_platform/test_data/LMS File Record Layouts.xlsx
+++ b/src/test/resources/rewards_platform/test_data/LMS File Record Layouts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariatkacheva/Documents/workspace/rewards_platform/src/test/resources/rewards_platform/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariatkacheva/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="11380" windowHeight="8320" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="2420" yWindow="460" windowWidth="11380" windowHeight="5060" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="QPQP" sheetId="1" r:id="rId1"/>
@@ -84,11 +84,11 @@
     <definedName name="Z_DA9EBB5A_EE92_41AE_B134_012594BFFC70_.wvu.FilterData" localSheetId="1" hidden="1">QPQB!$C$6:$I$131</definedName>
     <definedName name="Z_DA9EBB5A_EE92_41AE_B134_012594BFFC70_.wvu.FilterData" localSheetId="0" hidden="1">QPQP!$B$5:$H$184</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="jdutta - Personal View" guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="1"/>
+    <customWorkbookView name="gpadhiar - Personal View" guid="{99249448-FD30-4600-8F88-D8162E1600C3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="7"/>
     <customWorkbookView name="bjutta - Personal View" guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="6"/>
-    <customWorkbookView name="gpadhiar - Personal View" guid="{99249448-FD30-4600-8F88-D8162E1600C3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="7"/>
-    <customWorkbookView name="jdutta - Personal View" guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -5685,19 +5685,40 @@
     <t>Assumed Decimal</t>
   </si>
   <si>
+    <t>QMPA-RECORD</t>
+  </si>
+  <si>
     <t>Rewards Account (QMPA) record.</t>
   </si>
   <si>
+    <t>QMPA-KEY</t>
+  </si>
+  <si>
     <t>Rewards Account (QMPA) key.</t>
   </si>
   <si>
+    <t>QMPA-KEY-ORG-ACCT</t>
+  </si>
+  <si>
+    <t>QMPA-ORG</t>
+  </si>
+  <si>
     <t>Organization number data.</t>
   </si>
   <si>
+    <t>QMPA-ACCT</t>
+  </si>
+  <si>
     <t>Account Number</t>
   </si>
   <si>
+    <t>QMPA-SCHEME-ID</t>
+  </si>
+  <si>
     <t>Scheme Number associated with the Rewards Program</t>
+  </si>
+  <si>
+    <t>QMPA-ADD-STATUS</t>
   </si>
   <si>
     <t>Add Status (99 = complete)</t>
@@ -8007,27 +8028,6 @@
   </si>
   <si>
     <t>QTGI-SK-TXN-CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMPA-RECORD                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMPA-KEY                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMPA-KEY-ORG-ACCT                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMPA-ORG                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMPA-ACCT                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMPA-SCHEME-ID                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMPA-ADD-STATUS                     </t>
   </si>
 </sst>
 </file>
@@ -13976,9 +13976,9 @@
   </sheetData>
   <autoFilter ref="B5:H184"/>
   <customSheetViews>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter>
@@ -13996,9 +13996,9 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1">
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter>
@@ -14052,7 +14052,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="152" t="s">
-        <v>2314</v>
+        <v>2321</v>
       </c>
       <c r="C2" s="153"/>
       <c r="D2" s="153"/>
@@ -14061,7 +14061,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>2315</v>
+        <v>2322</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>2316</v>
+        <v>2323</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
@@ -14121,7 +14121,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>2317</v>
+        <v>2324</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>401</v>
@@ -14140,7 +14140,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>2325</v>
+        <v>2332</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>401</v>
@@ -14159,7 +14159,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>2326</v>
+        <v>2333</v>
       </c>
       <c r="C10" s="4">
         <v>999</v>
@@ -14180,7 +14180,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>2318</v>
+        <v>2325</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>424</v>
@@ -14201,7 +14201,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>2319</v>
+        <v>2326</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>401</v>
@@ -14220,7 +14220,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>2320</v>
+        <v>2327</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>486</v>
@@ -14241,7 +14241,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>2321</v>
+        <v>2328</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>401</v>
@@ -14260,7 +14260,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>2327</v>
+        <v>2334</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>413</v>
@@ -14281,7 +14281,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>2328</v>
+        <v>2335</v>
       </c>
       <c r="C16" s="4">
         <v>99</v>
@@ -14302,7 +14302,7 @@
     </row>
     <row r="17" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>2329</v>
+        <v>2336</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>1197</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="18" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>2330</v>
+        <v>2337</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>1198</v>
@@ -14365,7 +14365,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>2322</v>
+        <v>2329</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>489</v>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="21" spans="2:8" ht="56" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>2323</v>
+        <v>2330</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>489</v>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="22" spans="2:8" ht="56" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>2324</v>
+        <v>2331</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>489</v>
@@ -15211,14 +15211,13 @@
   </sheetData>
   <autoFilter ref="B5:H35"/>
   <customSheetViews>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A13">
+      <selection activeCell="I28" sqref="I28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:H1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A10">
       <selection activeCell="C26" sqref="C26"/>
@@ -15228,13 +15227,14 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A13">
-      <selection activeCell="I28" sqref="I28"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:H1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -22527,7 +22527,7 @@
   <dimension ref="A1:J2333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22582,7 +22582,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>2331</v>
+        <v>1738</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>1264</v>
@@ -22597,7 +22597,7 @@
         <v>764</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -22605,7 +22605,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>2332</v>
+        <v>1740</v>
       </c>
       <c r="C3" s="53" t="s">
         <v>1264</v>
@@ -22620,7 +22620,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -22628,7 +22628,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>2333</v>
+        <v>1742</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>1264</v>
@@ -22643,7 +22643,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -22651,7 +22651,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>2334</v>
+        <v>1743</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>1276</v>
@@ -22666,7 +22666,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -22674,7 +22674,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>2335</v>
+        <v>1745</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>1264</v>
@@ -22689,7 +22689,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>1741</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -22697,7 +22697,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>2336</v>
+        <v>1747</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>1264</v>
@@ -22712,7 +22712,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="91" t="s">
-        <v>1742</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -22720,7 +22720,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>2337</v>
+        <v>1749</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>1276</v>
@@ -22735,10 +22735,10 @@
         <v>29</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>1743</v>
+        <v>1750</v>
       </c>
       <c r="J8" s="65" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.2">
@@ -22746,7 +22746,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>1264</v>
@@ -22764,7 +22764,7 @@
         <v>1634</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>1746</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -22772,7 +22772,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>1747</v>
+        <v>1754</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>1264</v>
@@ -22795,7 +22795,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>1748</v>
+        <v>1755</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>1308</v>
@@ -22818,7 +22818,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>1749</v>
+        <v>1756</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>1264</v>
@@ -22833,10 +22833,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>1750</v>
+        <v>1757</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>1751</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -22844,7 +22844,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>1752</v>
+        <v>1759</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>1264</v>
@@ -22859,10 +22859,10 @@
         <v>39</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>1754</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -22870,7 +22870,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>1755</v>
+        <v>1762</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>1308</v>
@@ -22885,7 +22885,7 @@
         <v>43</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>1756</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -22893,7 +22893,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>1757</v>
+        <v>1764</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>1264</v>
@@ -22908,7 +22908,7 @@
         <v>68</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>1758</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -22916,7 +22916,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>1759</v>
+        <v>1766</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>1264</v>
@@ -22931,7 +22931,7 @@
         <v>69</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>1760</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -22939,7 +22939,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>1761</v>
+        <v>1768</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>1308</v>
@@ -22954,7 +22954,7 @@
         <v>73</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>1762</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -22962,7 +22962,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>1763</v>
+        <v>1770</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>1308</v>
@@ -22977,7 +22977,7 @@
         <v>82</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>1764</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -22985,7 +22985,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>1765</v>
+        <v>1772</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>1308</v>
@@ -23000,7 +23000,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>1766</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -23008,7 +23008,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>1767</v>
+        <v>1774</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>1308</v>
@@ -23023,7 +23023,7 @@
         <v>90</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>1768</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -23031,7 +23031,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>1769</v>
+        <v>1776</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>1264</v>
@@ -23046,7 +23046,7 @@
         <v>172</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>1770</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -23054,7 +23054,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>1264</v>
@@ -23077,7 +23077,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>1308</v>
@@ -23092,7 +23092,7 @@
         <v>99</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -23100,7 +23100,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
       <c r="C24" s="53" t="s">
         <v>1308</v>
@@ -23115,7 +23115,7 @@
         <v>108</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -23123,7 +23123,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>1308</v>
@@ -23138,7 +23138,7 @@
         <v>117</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>1777</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -23146,7 +23146,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>1308</v>
@@ -23161,7 +23161,7 @@
         <v>126</v>
       </c>
       <c r="I26" s="62" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -23169,7 +23169,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>1780</v>
+        <v>1787</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>1308</v>
@@ -23184,7 +23184,7 @@
         <v>135</v>
       </c>
       <c r="I27" s="62" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -23192,7 +23192,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>1782</v>
+        <v>1789</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>1308</v>
@@ -23207,7 +23207,7 @@
         <v>144</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -23215,7 +23215,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="C29" s="53" t="s">
         <v>1308</v>
@@ -23230,7 +23230,7 @@
         <v>153</v>
       </c>
       <c r="I29" s="62" t="s">
-        <v>1785</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -23238,7 +23238,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
       <c r="C30" s="53" t="s">
         <v>1308</v>
@@ -23253,7 +23253,7 @@
         <v>162</v>
       </c>
       <c r="I30" s="62" t="s">
-        <v>1787</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -23261,7 +23261,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>1788</v>
+        <v>1795</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>1264</v>
@@ -23276,10 +23276,10 @@
         <v>163</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>1789</v>
+        <v>1796</v>
       </c>
       <c r="J31" s="65" t="s">
-        <v>1790</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -23287,7 +23287,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>1791</v>
+        <v>1798</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>1308</v>
@@ -23302,7 +23302,7 @@
         <v>172</v>
       </c>
       <c r="I32" s="64" t="s">
-        <v>1792</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="33" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23310,7 +23310,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>1793</v>
+        <v>1800</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>1264</v>
@@ -23327,7 +23327,7 @@
         <v>262</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>1794</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="34" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23335,7 +23335,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>1795</v>
+        <v>1802</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>1264</v>
@@ -23360,7 +23360,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>1796</v>
+        <v>1803</v>
       </c>
       <c r="C35" s="53" t="s">
         <v>1308</v>
@@ -23377,7 +23377,7 @@
         <v>181</v>
       </c>
       <c r="I35" s="91" t="s">
-        <v>1797</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="36" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23385,7 +23385,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>1798</v>
+        <v>1805</v>
       </c>
       <c r="C36" s="53" t="s">
         <v>1308</v>
@@ -23402,7 +23402,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="91" t="s">
-        <v>1799</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="37" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23410,7 +23410,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>1800</v>
+        <v>1807</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>1308</v>
@@ -23427,7 +23427,7 @@
         <v>199</v>
       </c>
       <c r="I37" s="91" t="s">
-        <v>1801</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="38" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23435,7 +23435,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="76" t="s">
-        <v>1802</v>
+        <v>1809</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>1308</v>
@@ -23452,7 +23452,7 @@
         <v>208</v>
       </c>
       <c r="I38" s="91" t="s">
-        <v>1803</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="39" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23460,7 +23460,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="76" t="s">
-        <v>1804</v>
+        <v>1811</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>1308</v>
@@ -23477,7 +23477,7 @@
         <v>217</v>
       </c>
       <c r="I39" s="91" t="s">
-        <v>1805</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="40" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23485,7 +23485,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>1806</v>
+        <v>1813</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>1308</v>
@@ -23502,7 +23502,7 @@
         <v>226</v>
       </c>
       <c r="I40" s="91" t="s">
-        <v>1807</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="41" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23510,7 +23510,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>1808</v>
+        <v>1815</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>1308</v>
@@ -23527,7 +23527,7 @@
         <v>235</v>
       </c>
       <c r="I41" s="91" t="s">
-        <v>1809</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="42" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23535,7 +23535,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>1810</v>
+        <v>1817</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>1308</v>
@@ -23552,7 +23552,7 @@
         <v>244</v>
       </c>
       <c r="I42" s="91" t="s">
-        <v>1811</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="43" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23560,7 +23560,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>1812</v>
+        <v>1819</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>1308</v>
@@ -23577,7 +23577,7 @@
         <v>253</v>
       </c>
       <c r="I43" s="91" t="s">
-        <v>1813</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="44" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23585,7 +23585,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="76" t="s">
-        <v>1814</v>
+        <v>1821</v>
       </c>
       <c r="C44" s="53" t="s">
         <v>1308</v>
@@ -23602,7 +23602,7 @@
         <v>262</v>
       </c>
       <c r="I44" s="91" t="s">
-        <v>1815</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="45" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23610,7 +23610,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="76" t="s">
-        <v>1816</v>
+        <v>1823</v>
       </c>
       <c r="C45" s="53" t="s">
         <v>1264</v>
@@ -23627,7 +23627,7 @@
         <v>274</v>
       </c>
       <c r="I45" s="64" t="s">
-        <v>1817</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="46" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23635,7 +23635,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>1818</v>
+        <v>1825</v>
       </c>
       <c r="C46" s="53" t="s">
         <v>1276</v>
@@ -23652,7 +23652,7 @@
         <v>264</v>
       </c>
       <c r="I46" s="64" t="s">
-        <v>1819</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="47" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23660,7 +23660,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>1820</v>
+        <v>1827</v>
       </c>
       <c r="C47" s="53" t="s">
         <v>1276</v>
@@ -23677,7 +23677,7 @@
         <v>266</v>
       </c>
       <c r="I47" s="64" t="s">
-        <v>1821</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="48" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23685,7 +23685,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>1822</v>
+        <v>1829</v>
       </c>
       <c r="C48" s="53" t="s">
         <v>1308</v>
@@ -23702,7 +23702,7 @@
         <v>270</v>
       </c>
       <c r="I48" s="64" t="s">
-        <v>1823</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -23710,7 +23710,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="76" t="s">
-        <v>1824</v>
+        <v>1831</v>
       </c>
       <c r="C49" s="53" t="s">
         <v>1308</v>
@@ -23725,7 +23725,7 @@
         <v>274</v>
       </c>
       <c r="I49" s="64" t="s">
-        <v>1825</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -23733,7 +23733,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="76" t="s">
-        <v>1826</v>
+        <v>1833</v>
       </c>
       <c r="C50" s="53" t="s">
         <v>1308</v>
@@ -23748,7 +23748,7 @@
         <v>278</v>
       </c>
       <c r="I50" s="64" t="s">
-        <v>1827</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -23756,7 +23756,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>1828</v>
+        <v>1835</v>
       </c>
       <c r="C51" s="53" t="s">
         <v>1308</v>
@@ -23771,7 +23771,7 @@
         <v>282</v>
       </c>
       <c r="I51" s="64" t="s">
-        <v>1829</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -23779,7 +23779,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="76" t="s">
-        <v>1830</v>
+        <v>1837</v>
       </c>
       <c r="C52" s="53" t="s">
         <v>1264</v>
@@ -23794,10 +23794,10 @@
         <v>283</v>
       </c>
       <c r="I52" s="64" t="s">
-        <v>1831</v>
+        <v>1838</v>
       </c>
       <c r="J52" s="65" t="s">
-        <v>1832</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -23805,7 +23805,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>1833</v>
+        <v>1840</v>
       </c>
       <c r="C53" s="53" t="s">
         <v>1264</v>
@@ -23820,10 +23820,10 @@
         <v>284</v>
       </c>
       <c r="I53" s="64" t="s">
-        <v>1834</v>
+        <v>1841</v>
       </c>
       <c r="J53" s="65" t="s">
-        <v>1835</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -23831,7 +23831,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>1836</v>
+        <v>1843</v>
       </c>
       <c r="C54" s="53" t="s">
         <v>1264</v>
@@ -23846,10 +23846,10 @@
         <v>285</v>
       </c>
       <c r="I54" s="64" t="s">
-        <v>1837</v>
+        <v>1844</v>
       </c>
       <c r="J54" s="65" t="s">
-        <v>1838</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -23857,7 +23857,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="76" t="s">
-        <v>1839</v>
+        <v>1846</v>
       </c>
       <c r="C55" s="53" t="s">
         <v>1264</v>
@@ -23872,10 +23872,10 @@
         <v>286</v>
       </c>
       <c r="I55" s="64" t="s">
-        <v>1840</v>
+        <v>1847</v>
       </c>
       <c r="J55" s="65" t="s">
-        <v>1841</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -23883,7 +23883,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="76" t="s">
-        <v>1842</v>
+        <v>1849</v>
       </c>
       <c r="C56" s="53" t="s">
         <v>1308</v>
@@ -23898,7 +23898,7 @@
         <v>295</v>
       </c>
       <c r="I56" s="64" t="s">
-        <v>1843</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -23906,7 +23906,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="C57" s="53" t="s">
         <v>1276</v>
@@ -23921,7 +23921,7 @@
         <v>297</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>1845</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -23929,7 +23929,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>1846</v>
+        <v>1853</v>
       </c>
       <c r="C58" s="53" t="s">
         <v>1276</v>
@@ -23944,7 +23944,7 @@
         <v>299</v>
       </c>
       <c r="I58" s="64" t="s">
-        <v>1847</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="90" x14ac:dyDescent="0.2">
@@ -23952,7 +23952,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="76" t="s">
-        <v>1848</v>
+        <v>1855</v>
       </c>
       <c r="C59" s="53" t="s">
         <v>1264</v>
@@ -23967,10 +23967,10 @@
         <v>300</v>
       </c>
       <c r="I59" s="64" t="s">
-        <v>1849</v>
+        <v>1856</v>
       </c>
       <c r="J59" s="65" t="s">
-        <v>1850</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -23978,7 +23978,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="76" t="s">
-        <v>1851</v>
+        <v>1858</v>
       </c>
       <c r="C60" s="53" t="s">
         <v>1276</v>
@@ -23993,7 +23993,7 @@
         <v>302</v>
       </c>
       <c r="I60" s="64" t="s">
-        <v>1852</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -24001,7 +24001,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>1853</v>
+        <v>1860</v>
       </c>
       <c r="C61" s="53" t="s">
         <v>1264</v>
@@ -24021,7 +24021,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>1854</v>
+        <v>1861</v>
       </c>
       <c r="C62" s="53" t="s">
         <v>1308</v>
@@ -24036,7 +24036,7 @@
         <v>349</v>
       </c>
       <c r="I62" s="64" t="s">
-        <v>1855</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -24044,7 +24044,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>1856</v>
+        <v>1863</v>
       </c>
       <c r="C63" s="53" t="s">
         <v>1308</v>
@@ -24059,7 +24059,7 @@
         <v>353</v>
       </c>
       <c r="I63" s="64" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -24067,7 +24067,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>1858</v>
+        <v>1865</v>
       </c>
       <c r="C64" s="53" t="s">
         <v>1264</v>
@@ -24082,10 +24082,10 @@
         <v>359</v>
       </c>
       <c r="I64" s="64" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="J64" s="65" t="s">
-        <v>1860</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -24093,7 +24093,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>1861</v>
+        <v>1868</v>
       </c>
       <c r="C65" s="53" t="s">
         <v>1308</v>
@@ -24108,7 +24108,7 @@
         <v>368</v>
       </c>
       <c r="I65" s="64" t="s">
-        <v>1862</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -24116,7 +24116,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="76" t="s">
-        <v>1863</v>
+        <v>1870</v>
       </c>
       <c r="C66" s="53" t="s">
         <v>1264</v>
@@ -24131,7 +24131,7 @@
         <v>372</v>
       </c>
       <c r="I66" s="64" t="s">
-        <v>1864</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -24139,7 +24139,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="76" t="s">
-        <v>1865</v>
+        <v>1872</v>
       </c>
       <c r="C67" s="53" t="s">
         <v>1308</v>
@@ -24154,7 +24154,7 @@
         <v>376</v>
       </c>
       <c r="I67" s="64" t="s">
-        <v>1866</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24162,7 +24162,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="76" t="s">
-        <v>1867</v>
+        <v>1874</v>
       </c>
       <c r="C68" s="53" t="s">
         <v>1264</v>
@@ -24177,10 +24177,10 @@
         <v>377</v>
       </c>
       <c r="I68" s="64" t="s">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="J68" s="65" t="s">
-        <v>1869</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -24188,7 +24188,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="76" t="s">
-        <v>1870</v>
+        <v>1877</v>
       </c>
       <c r="C69" s="53" t="s">
         <v>1308</v>
@@ -24203,7 +24203,7 @@
         <v>381</v>
       </c>
       <c r="I69" s="64" t="s">
-        <v>1871</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -24211,7 +24211,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>1872</v>
+        <v>1879</v>
       </c>
       <c r="C70" s="53" t="s">
         <v>1308</v>
@@ -24226,7 +24226,7 @@
         <v>385</v>
       </c>
       <c r="I70" s="64" t="s">
-        <v>1873</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -24234,7 +24234,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>1874</v>
+        <v>1881</v>
       </c>
       <c r="C71" s="53" t="s">
         <v>1308</v>
@@ -24249,7 +24249,7 @@
         <v>394</v>
       </c>
       <c r="I71" s="64" t="s">
-        <v>1875</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -24257,7 +24257,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>1876</v>
+        <v>1883</v>
       </c>
       <c r="C72" s="53" t="s">
         <v>1276</v>
@@ -24272,7 +24272,7 @@
         <v>396</v>
       </c>
       <c r="I72" s="64" t="s">
-        <v>1877</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -24280,7 +24280,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="76" t="s">
-        <v>1878</v>
+        <v>1885</v>
       </c>
       <c r="C73" s="53" t="s">
         <v>1308</v>
@@ -24295,7 +24295,7 @@
         <v>400</v>
       </c>
       <c r="I73" s="64" t="s">
-        <v>1879</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24303,7 +24303,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="76" t="s">
-        <v>1880</v>
+        <v>1887</v>
       </c>
       <c r="C74" s="53" t="s">
         <v>1264</v>
@@ -24318,10 +24318,10 @@
         <v>401</v>
       </c>
       <c r="I74" s="64" t="s">
-        <v>1881</v>
+        <v>1888</v>
       </c>
       <c r="J74" s="65" t="s">
-        <v>1882</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -24329,7 +24329,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="76" t="s">
-        <v>1883</v>
+        <v>1890</v>
       </c>
       <c r="C75" s="53" t="s">
         <v>1264</v>
@@ -24344,7 +24344,7 @@
         <v>474</v>
       </c>
       <c r="I75" s="64" t="s">
-        <v>1884</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -24352,7 +24352,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>1885</v>
+        <v>1892</v>
       </c>
       <c r="C76" s="53" t="s">
         <v>1264</v>
@@ -24375,7 +24375,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="76" t="s">
-        <v>1886</v>
+        <v>1893</v>
       </c>
       <c r="C77" s="53" t="s">
         <v>1308</v>
@@ -24390,7 +24390,7 @@
         <v>410</v>
       </c>
       <c r="I77" s="62" t="s">
-        <v>1887</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -24398,7 +24398,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>1888</v>
+        <v>1895</v>
       </c>
       <c r="C78" s="53" t="s">
         <v>1308</v>
@@ -24413,7 +24413,7 @@
         <v>419</v>
       </c>
       <c r="I78" s="62" t="s">
-        <v>1889</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -24421,7 +24421,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>1890</v>
+        <v>1897</v>
       </c>
       <c r="C79" s="53" t="s">
         <v>1308</v>
@@ -24436,7 +24436,7 @@
         <v>428</v>
       </c>
       <c r="I79" s="62" t="s">
-        <v>1891</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -24444,7 +24444,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="76" t="s">
-        <v>1892</v>
+        <v>1899</v>
       </c>
       <c r="C80" s="53" t="s">
         <v>1308</v>
@@ -24459,7 +24459,7 @@
         <v>437</v>
       </c>
       <c r="I80" s="62" t="s">
-        <v>1893</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -24467,7 +24467,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="76" t="s">
-        <v>1894</v>
+        <v>1901</v>
       </c>
       <c r="C81" s="53" t="s">
         <v>1308</v>
@@ -24482,7 +24482,7 @@
         <v>446</v>
       </c>
       <c r="I81" s="62" t="s">
-        <v>1895</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -24490,7 +24490,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>1896</v>
+        <v>1903</v>
       </c>
       <c r="C82" s="53" t="s">
         <v>1308</v>
@@ -24505,7 +24505,7 @@
         <v>455</v>
       </c>
       <c r="I82" s="62" t="s">
-        <v>1897</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -24513,7 +24513,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>1898</v>
+        <v>1905</v>
       </c>
       <c r="C83" s="53" t="s">
         <v>1308</v>
@@ -24528,7 +24528,7 @@
         <v>464</v>
       </c>
       <c r="I83" s="62" t="s">
-        <v>1899</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -24536,7 +24536,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="76" t="s">
-        <v>1900</v>
+        <v>1907</v>
       </c>
       <c r="C84" s="53" t="s">
         <v>1308</v>
@@ -24551,7 +24551,7 @@
         <v>473</v>
       </c>
       <c r="I84" s="62" t="s">
-        <v>1901</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24559,7 +24559,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="C85" s="53" t="s">
         <v>1264</v>
@@ -24574,10 +24574,10 @@
         <v>474</v>
       </c>
       <c r="I85" s="64" t="s">
-        <v>1903</v>
+        <v>1910</v>
       </c>
       <c r="J85" s="65" t="s">
-        <v>1904</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24585,7 +24585,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="76" t="s">
-        <v>1905</v>
+        <v>1912</v>
       </c>
       <c r="C86" s="53" t="s">
         <v>1264</v>
@@ -24600,10 +24600,10 @@
         <v>475</v>
       </c>
       <c r="I86" s="64" t="s">
-        <v>1906</v>
+        <v>1913</v>
       </c>
       <c r="J86" s="65" t="s">
-        <v>1907</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -24611,7 +24611,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="76" t="s">
-        <v>1908</v>
+        <v>1915</v>
       </c>
       <c r="C87" s="53" t="s">
         <v>1308</v>
@@ -24626,7 +24626,7 @@
         <v>479</v>
       </c>
       <c r="I87" s="64" t="s">
-        <v>1909</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -24634,7 +24634,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>1910</v>
+        <v>1917</v>
       </c>
       <c r="C88" s="53" t="s">
         <v>1308</v>
@@ -24654,7 +24654,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="76" t="s">
-        <v>1911</v>
+        <v>1918</v>
       </c>
       <c r="C89" s="92" t="s">
         <v>1308</v>
@@ -24671,7 +24671,7 @@
         <v>497</v>
       </c>
       <c r="I89" s="91" t="s">
-        <v>1912</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24679,7 +24679,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="76" t="s">
-        <v>1913</v>
+        <v>1920</v>
       </c>
       <c r="C90" s="53" t="s">
         <v>1264</v>
@@ -24694,10 +24694,10 @@
         <v>498</v>
       </c>
       <c r="I90" s="64" t="s">
-        <v>1831</v>
+        <v>1838</v>
       </c>
       <c r="J90" s="65" t="s">
-        <v>1914</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -24705,7 +24705,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="76" t="s">
-        <v>1915</v>
+        <v>1922</v>
       </c>
       <c r="C91" s="53" t="s">
         <v>1264</v>
@@ -24720,10 +24720,10 @@
         <v>499</v>
       </c>
       <c r="I91" s="64" t="s">
-        <v>1916</v>
+        <v>1923</v>
       </c>
       <c r="J91" s="65" t="s">
-        <v>1917</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -24731,7 +24731,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="76" t="s">
-        <v>1918</v>
+        <v>1925</v>
       </c>
       <c r="C92" s="53" t="s">
         <v>1308</v>
@@ -24746,7 +24746,7 @@
         <v>503</v>
       </c>
       <c r="I92" s="64" t="s">
-        <v>1919</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -24754,7 +24754,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="76" t="s">
-        <v>1920</v>
+        <v>1927</v>
       </c>
       <c r="C93" s="53" t="s">
         <v>1264</v>
@@ -24769,7 +24769,7 @@
         <v>764</v>
       </c>
       <c r="I93" s="64" t="s">
-        <v>1921</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -24777,7 +24777,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>1922</v>
+        <v>1929</v>
       </c>
       <c r="C94" s="53" t="s">
         <v>1264</v>
@@ -24792,7 +24792,7 @@
         <v>639</v>
       </c>
       <c r="I94" s="64" t="s">
-        <v>1921</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -24800,7 +24800,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="76" t="s">
-        <v>1923</v>
+        <v>1930</v>
       </c>
       <c r="C95" s="53" t="s">
         <v>1264</v>
@@ -24815,10 +24815,10 @@
         <v>504</v>
       </c>
       <c r="I95" s="64" t="s">
-        <v>1924</v>
+        <v>1931</v>
       </c>
       <c r="J95" s="65" t="s">
-        <v>1925</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -24826,7 +24826,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="76" t="s">
-        <v>1926</v>
+        <v>1933</v>
       </c>
       <c r="C96" s="53" t="s">
         <v>1264</v>
@@ -24846,7 +24846,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="76" t="s">
-        <v>1927</v>
+        <v>1934</v>
       </c>
       <c r="C97" s="53" t="s">
         <v>1264</v>
@@ -24869,7 +24869,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="76" t="s">
-        <v>1928</v>
+        <v>1935</v>
       </c>
       <c r="C98" s="53" t="s">
         <v>1308</v>
@@ -24892,7 +24892,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="76" t="s">
-        <v>1929</v>
+        <v>1936</v>
       </c>
       <c r="C99" s="53" t="s">
         <v>1276</v>
@@ -24915,7 +24915,7 @@
         <v>4</v>
       </c>
       <c r="B100" s="76" t="s">
-        <v>1930</v>
+        <v>1937</v>
       </c>
       <c r="C100" s="53" t="s">
         <v>1276</v>
@@ -24938,7 +24938,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="76" t="s">
-        <v>1931</v>
+        <v>1938</v>
       </c>
       <c r="C101" s="53" t="s">
         <v>1264</v>
@@ -24961,7 +24961,7 @@
         <v>4</v>
       </c>
       <c r="B102" s="76" t="s">
-        <v>1932</v>
+        <v>1939</v>
       </c>
       <c r="C102" s="53" t="s">
         <v>1308</v>
@@ -24984,7 +24984,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="76" t="s">
-        <v>1933</v>
+        <v>1940</v>
       </c>
       <c r="C103" s="53" t="s">
         <v>1308</v>
@@ -25007,7 +25007,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="76" t="s">
-        <v>1934</v>
+        <v>1941</v>
       </c>
       <c r="C104" s="53" t="s">
         <v>1264</v>
@@ -25030,7 +25030,7 @@
         <v>4</v>
       </c>
       <c r="B105" s="76" t="s">
-        <v>1935</v>
+        <v>1942</v>
       </c>
       <c r="C105" s="53" t="s">
         <v>1308</v>
@@ -25053,7 +25053,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="76" t="s">
-        <v>1936</v>
+        <v>1943</v>
       </c>
       <c r="C106" s="53" t="s">
         <v>1276</v>
@@ -25101,7 +25101,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="76" t="s">
-        <v>1937</v>
+        <v>1944</v>
       </c>
       <c r="C108" s="53" t="s">
         <v>1264</v>
@@ -25124,7 +25124,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="76" t="s">
-        <v>1938</v>
+        <v>1945</v>
       </c>
       <c r="C109" s="53" t="s">
         <v>1276</v>
@@ -25147,7 +25147,7 @@
         <v>4</v>
       </c>
       <c r="B110" s="76" t="s">
-        <v>1939</v>
+        <v>1946</v>
       </c>
       <c r="C110" s="53" t="s">
         <v>1276</v>
@@ -25170,7 +25170,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="76" t="s">
-        <v>1940</v>
+        <v>1947</v>
       </c>
       <c r="C111" s="53" t="s">
         <v>1264</v>
@@ -25195,7 +25195,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="76" t="s">
-        <v>1941</v>
+        <v>1948</v>
       </c>
       <c r="C112" s="53" t="s">
         <v>1264</v>
@@ -25212,7 +25212,7 @@
         <v>699</v>
       </c>
       <c r="I112" s="64" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="113" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -25220,7 +25220,7 @@
         <v>4</v>
       </c>
       <c r="B113" s="76" t="s">
-        <v>1943</v>
+        <v>1950</v>
       </c>
       <c r="C113" s="53" t="s">
         <v>1264</v>
@@ -25245,7 +25245,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="76" t="s">
-        <v>1944</v>
+        <v>1951</v>
       </c>
       <c r="C114" s="53" t="s">
         <v>1264</v>
@@ -25262,7 +25262,7 @@
         <v>764</v>
       </c>
       <c r="I114" s="64" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="115" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -25270,7 +25270,7 @@
         <v>4</v>
       </c>
       <c r="B115" s="76" t="s">
-        <v>1945</v>
+        <v>1952</v>
       </c>
       <c r="C115" s="53" t="s">
         <v>1264</v>
@@ -36662,8 +36662,8 @@
   </sheetData>
   <autoFilter ref="C6:I131"/>
   <customSheetViews>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="I11" sqref="I11"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1" topLeftCell="A7">
+      <selection activeCell="I19" sqref="I19:I20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter>
@@ -36680,8 +36680,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1" topLeftCell="A7">
-      <selection activeCell="I19" sqref="I19:I20"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="I11" sqref="I11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter>
@@ -54368,7 +54368,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>2153</v>
+        <v>2160</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="97"/>
@@ -54379,7 +54379,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>2154</v>
+        <v>2161</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="97"/>
@@ -54408,16 +54408,16 @@
         <v>1190</v>
       </c>
       <c r="E5" s="177" t="s">
-        <v>2155</v>
+        <v>2162</v>
       </c>
       <c r="F5" s="184" t="s">
-        <v>2156</v>
+        <v>2163</v>
       </c>
       <c r="G5" s="177" t="s">
-        <v>2157</v>
+        <v>2164</v>
       </c>
       <c r="H5" s="177" t="s">
-        <v>1949</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -54433,7 +54433,7 @@
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="179" t="s">
-        <v>2158</v>
+        <v>2165</v>
       </c>
       <c r="C7" s="180"/>
       <c r="D7" s="181"/>
@@ -54444,10 +54444,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="127" t="s">
-        <v>2159</v>
+        <v>2166</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="D8" s="129">
         <v>1</v>
@@ -54462,15 +54462,15 @@
         <v>602</v>
       </c>
       <c r="H8" s="130" t="s">
-        <v>2160</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="131" t="s">
-        <v>2161</v>
+        <v>2168</v>
       </c>
       <c r="C9" s="132" t="s">
-        <v>2162</v>
+        <v>2169</v>
       </c>
       <c r="D9" s="133">
         <v>8</v>
@@ -54485,7 +54485,7 @@
         <v>602</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>2163</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -54493,7 +54493,7 @@
         <v>1219</v>
       </c>
       <c r="C10" s="136" t="s">
-        <v>2164</v>
+        <v>2171</v>
       </c>
       <c r="D10" s="137">
         <v>191</v>
@@ -54508,7 +54508,7 @@
         <v>602</v>
       </c>
       <c r="H10" s="138" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -54524,10 +54524,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="127" t="s">
-        <v>2159</v>
+        <v>2166</v>
       </c>
       <c r="C12" s="128" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="D12" s="129">
         <v>1</v>
@@ -54542,12 +54542,12 @@
         <v>602</v>
       </c>
       <c r="H12" s="130" t="s">
-        <v>1973</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="131" t="s">
-        <v>2165</v>
+        <v>2172</v>
       </c>
       <c r="C13" s="132">
         <v>999</v>
@@ -54565,15 +54565,15 @@
         <v>602</v>
       </c>
       <c r="H13" s="139" t="s">
-        <v>2166</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="131" t="s">
-        <v>2167</v>
+        <v>2174</v>
       </c>
       <c r="C14" s="132" t="s">
-        <v>2168</v>
+        <v>2175</v>
       </c>
       <c r="D14" s="133">
         <v>19</v>
@@ -54588,12 +54588,12 @@
         <v>602</v>
       </c>
       <c r="H14" s="139" t="s">
-        <v>2169</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="131" t="s">
-        <v>2170</v>
+        <v>2177</v>
       </c>
       <c r="C15" s="132" t="s">
         <v>1220</v>
@@ -54616,10 +54616,10 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="131" t="s">
-        <v>2171</v>
+        <v>2178</v>
       </c>
       <c r="C16" s="132" t="s">
-        <v>2172</v>
+        <v>2179</v>
       </c>
       <c r="D16" s="133">
         <v>4</v>
@@ -54634,15 +54634,15 @@
         <v>602</v>
       </c>
       <c r="H16" s="139" t="s">
-        <v>2173</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="131" t="s">
-        <v>2174</v>
+        <v>2181</v>
       </c>
       <c r="C17" s="132" t="s">
-        <v>2175</v>
+        <v>2182</v>
       </c>
       <c r="D17" s="133">
         <v>3</v>
@@ -54657,15 +54657,15 @@
         <v>602</v>
       </c>
       <c r="H17" s="139" t="s">
-        <v>2176</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="131" t="s">
-        <v>2177</v>
+        <v>2184</v>
       </c>
       <c r="C18" s="132" t="s">
-        <v>2178</v>
+        <v>2185</v>
       </c>
       <c r="D18" s="133">
         <v>2</v>
@@ -54680,15 +54680,15 @@
         <v>602</v>
       </c>
       <c r="H18" s="139" t="s">
-        <v>2179</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="131" t="s">
-        <v>2180</v>
+        <v>2187</v>
       </c>
       <c r="C19" s="132" t="s">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D19" s="133">
         <v>19</v>
@@ -54703,15 +54703,15 @@
         <v>602</v>
       </c>
       <c r="H19" s="139" t="s">
-        <v>2181</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="140" t="s">
-        <v>2182</v>
+        <v>2189</v>
       </c>
       <c r="C20" s="140" t="s">
-        <v>2139</v>
+        <v>2146</v>
       </c>
       <c r="D20" s="133">
         <v>144</v>
@@ -54726,15 +54726,15 @@
         <v>602</v>
       </c>
       <c r="H20" s="141" t="s">
-        <v>2183</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="140" t="s">
-        <v>2184</v>
+        <v>2191</v>
       </c>
       <c r="C21" s="140" t="s">
-        <v>2031</v>
+        <v>2038</v>
       </c>
       <c r="D21" s="133">
         <v>94</v>
@@ -54749,12 +54749,12 @@
         <v>602</v>
       </c>
       <c r="H21" s="141" t="s">
-        <v>2183</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="140" t="s">
-        <v>2185</v>
+        <v>2192</v>
       </c>
       <c r="C22" s="140">
         <v>9</v>
@@ -54772,15 +54772,15 @@
         <v>602</v>
       </c>
       <c r="H22" s="142" t="s">
-        <v>2186</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="140" t="s">
-        <v>2187</v>
+        <v>2194</v>
       </c>
       <c r="C23" s="140" t="s">
-        <v>2188</v>
+        <v>2195</v>
       </c>
       <c r="D23" s="133">
         <v>93</v>
@@ -54795,15 +54795,15 @@
         <v>602</v>
       </c>
       <c r="H23" s="141" t="s">
-        <v>2183</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="140" t="s">
-        <v>2189</v>
+        <v>2196</v>
       </c>
       <c r="C24" s="140" t="s">
-        <v>2190</v>
+        <v>2197</v>
       </c>
       <c r="D24" s="133">
         <v>25</v>
@@ -54818,15 +54818,15 @@
         <v>602</v>
       </c>
       <c r="H24" s="141" t="s">
-        <v>2183</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="140" t="s">
-        <v>2191</v>
+        <v>2198</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>2192</v>
+        <v>2199</v>
       </c>
       <c r="D25" s="133">
         <v>25</v>
@@ -54841,15 +54841,15 @@
         <v>602</v>
       </c>
       <c r="H25" s="141" t="s">
-        <v>2183</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="140" t="s">
-        <v>2193</v>
+        <v>2200</v>
       </c>
       <c r="C26" s="140" t="s">
-        <v>2139</v>
+        <v>2146</v>
       </c>
       <c r="D26" s="133">
         <v>25</v>
@@ -54864,12 +54864,12 @@
         <v>602</v>
       </c>
       <c r="H26" s="141" t="s">
-        <v>2183</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="143" t="s">
-        <v>2194</v>
+        <v>2201</v>
       </c>
       <c r="C27" s="144" t="s">
         <v>347</v>
@@ -54887,12 +54887,12 @@
         <v>602</v>
       </c>
       <c r="H27" s="146" t="s">
-        <v>2183</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="179" t="s">
-        <v>2195</v>
+        <v>2202</v>
       </c>
       <c r="C28" s="180"/>
       <c r="D28" s="181"/>
@@ -54903,10 +54903,10 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="127" t="s">
-        <v>2159</v>
+        <v>2166</v>
       </c>
       <c r="C29" s="128" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="D29" s="129">
         <v>1</v>
@@ -54921,15 +54921,15 @@
         <v>602</v>
       </c>
       <c r="H29" s="130" t="s">
-        <v>2196</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="131" t="s">
-        <v>2197</v>
+        <v>2204</v>
       </c>
       <c r="C30" s="132" t="s">
-        <v>2198</v>
+        <v>2205</v>
       </c>
       <c r="D30" s="133">
         <v>8</v>
@@ -54944,15 +54944,15 @@
         <v>602</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>2199</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="131" t="s">
-        <v>2200</v>
+        <v>2207</v>
       </c>
       <c r="C31" s="132" t="s">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="D31" s="133">
         <v>17</v>
@@ -54967,15 +54967,15 @@
         <v>602</v>
       </c>
       <c r="H31" s="147" t="s">
-        <v>2201</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="131" t="s">
-        <v>2202</v>
+        <v>2209</v>
       </c>
       <c r="C32" s="132" t="s">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="D32" s="133">
         <v>17</v>
@@ -54990,7 +54990,7 @@
         <v>602</v>
       </c>
       <c r="H32" s="147" t="s">
-        <v>2203</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -54998,7 +54998,7 @@
         <v>1219</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>2204</v>
+        <v>2211</v>
       </c>
       <c r="D33" s="150">
         <v>157</v>
@@ -55013,7 +55013,7 @@
         <v>602</v>
       </c>
       <c r="H33" s="151" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
   </sheetData>
@@ -55500,7 +55500,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>2120</v>
+        <v>2127</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -55510,7 +55510,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>2121</v>
+        <v>2128</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="97"/>
@@ -55534,21 +55534,21 @@
         <v>1216</v>
       </c>
       <c r="D5" s="115" t="s">
-        <v>2122</v>
+        <v>2129</v>
       </c>
       <c r="E5" s="115" t="s">
-        <v>2123</v>
+        <v>2130</v>
       </c>
       <c r="F5" s="116" t="s">
         <v>1190</v>
       </c>
       <c r="G5" s="116" t="s">
-        <v>2124</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>2125</v>
+        <v>2132</v>
       </c>
       <c r="C6" s="118"/>
       <c r="D6" s="118">
@@ -55564,7 +55564,7 @@
     </row>
     <row r="7" spans="2:7" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="186" t="s">
-        <v>2126</v>
+        <v>2133</v>
       </c>
       <c r="C7" s="187"/>
       <c r="D7" s="187"/>
@@ -55574,7 +55574,7 @@
     </row>
     <row r="8" spans="2:7" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="119" t="s">
-        <v>2127</v>
+        <v>2134</v>
       </c>
       <c r="C8" s="120" t="s">
         <v>1225</v>
@@ -55589,12 +55589,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="121" t="s">
-        <v>2128</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="186" t="s">
-        <v>2129</v>
+        <v>2136</v>
       </c>
       <c r="C9" s="187"/>
       <c r="D9" s="187"/>
@@ -55604,7 +55604,7 @@
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="119" t="s">
-        <v>2127</v>
+        <v>2134</v>
       </c>
       <c r="C10" s="120" t="s">
         <v>1225</v>
@@ -55619,12 +55619,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="122" t="s">
-        <v>2130</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="119" t="s">
-        <v>2131</v>
+        <v>2138</v>
       </c>
       <c r="C11" s="120">
         <v>999</v>
@@ -55644,10 +55644,10 @@
     </row>
     <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="119" t="s">
-        <v>2132</v>
+        <v>2139</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="D12" s="120">
         <v>5</v>
@@ -55659,15 +55659,15 @@
         <v>19</v>
       </c>
       <c r="G12" s="93" t="s">
-        <v>1978</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="119" t="s">
-        <v>2133</v>
+        <v>2140</v>
       </c>
       <c r="C13" s="120" t="s">
-        <v>2134</v>
+        <v>2141</v>
       </c>
       <c r="D13" s="120">
         <v>24</v>
@@ -55679,12 +55679,12 @@
         <v>5</v>
       </c>
       <c r="G13" s="93" t="s">
-        <v>1981</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="119" t="s">
-        <v>2135</v>
+        <v>2142</v>
       </c>
       <c r="C14" s="120" t="s">
         <v>1225</v>
@@ -55699,15 +55699,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="121" t="s">
-        <v>2136</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="119" t="s">
-        <v>2137</v>
+        <v>2144</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>2020</v>
+        <v>2027</v>
       </c>
       <c r="D15" s="120">
         <v>30</v>
@@ -55719,15 +55719,15 @@
         <v>31</v>
       </c>
       <c r="G15" s="121" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="119" t="s">
-        <v>2138</v>
+        <v>2145</v>
       </c>
       <c r="C16" s="120" t="s">
-        <v>2139</v>
+        <v>2146</v>
       </c>
       <c r="D16" s="120">
         <v>30</v>
@@ -55739,15 +55739,15 @@
         <v>21</v>
       </c>
       <c r="G16" s="121" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="119" t="s">
-        <v>2140</v>
+        <v>2147</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>2141</v>
+        <v>2148</v>
       </c>
       <c r="D17" s="120">
         <v>30</v>
@@ -55759,15 +55759,15 @@
         <v>4</v>
       </c>
       <c r="G17" s="93" t="s">
-        <v>2142</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="119" t="s">
-        <v>2143</v>
+        <v>2150</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>2144</v>
+        <v>2151</v>
       </c>
       <c r="D18" s="120">
         <v>34</v>
@@ -55779,15 +55779,15 @@
         <v>17</v>
       </c>
       <c r="G18" s="121" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="119" t="s">
-        <v>2145</v>
+        <v>2152</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>2139</v>
+        <v>2146</v>
       </c>
       <c r="D19" s="120">
         <v>51</v>
@@ -55799,12 +55799,12 @@
         <v>5</v>
       </c>
       <c r="G19" s="121" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="123" t="s">
-        <v>2146</v>
+        <v>2153</v>
       </c>
       <c r="C20" s="124" t="s">
         <v>1220</v>
@@ -55819,15 +55819,15 @@
         <v>5</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="123" t="s">
-        <v>2147</v>
+        <v>2154</v>
       </c>
       <c r="C21" s="124" t="s">
-        <v>2148</v>
+        <v>2155</v>
       </c>
       <c r="D21" s="124">
         <v>56</v>
@@ -55839,15 +55839,15 @@
         <v>5</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="123" t="s">
-        <v>2149</v>
+        <v>2156</v>
       </c>
       <c r="C22" s="124" t="s">
-        <v>2150</v>
+        <v>2157</v>
       </c>
       <c r="D22" s="124">
         <v>56</v>
@@ -55859,12 +55859,12 @@
         <v>5</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="186" t="s">
-        <v>2151</v>
+        <v>2158</v>
       </c>
       <c r="C23" s="187"/>
       <c r="D23" s="187"/>
@@ -55874,7 +55874,7 @@
     </row>
     <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="119" t="s">
-        <v>2127</v>
+        <v>2134</v>
       </c>
       <c r="C24" s="120" t="s">
         <v>1225</v>
@@ -55889,7 +55889,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="122" t="s">
-        <v>2152</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -56441,7 +56441,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="97"/>
@@ -56452,7 +56452,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>2044</v>
+        <v>2051</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="97"/>
@@ -56487,10 +56487,10 @@
         <v>1218</v>
       </c>
       <c r="G5" s="194" t="s">
-        <v>1948</v>
+        <v>1955</v>
       </c>
       <c r="H5" s="189" t="s">
-        <v>1949</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -56506,7 +56506,7 @@
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="186" t="s">
-        <v>2045</v>
+        <v>2052</v>
       </c>
       <c r="C7" s="191"/>
       <c r="D7" s="187"/>
@@ -56517,10 +56517,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="99" t="s">
-        <v>2046</v>
+        <v>2053</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>2047</v>
+        <v>2054</v>
       </c>
       <c r="D8" s="101">
         <v>1</v>
@@ -56533,15 +56533,15 @@
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="102" t="s">
-        <v>2048</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="103" t="s">
-        <v>2049</v>
+        <v>2056</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>2050</v>
+        <v>2057</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -56554,7 +56554,7 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="105" t="s">
-        <v>2051</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -56562,7 +56562,7 @@
         <v>817</v>
       </c>
       <c r="C10" s="107" t="s">
-        <v>2052</v>
+        <v>2059</v>
       </c>
       <c r="D10" s="108">
         <v>51</v>
@@ -56575,12 +56575,12 @@
       </c>
       <c r="G10" s="108"/>
       <c r="H10" s="109" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="186" t="s">
-        <v>2053</v>
+        <v>2060</v>
       </c>
       <c r="C11" s="191"/>
       <c r="D11" s="187"/>
@@ -56591,10 +56591,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="99" t="s">
-        <v>2046</v>
+        <v>2053</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>2047</v>
+        <v>2054</v>
       </c>
       <c r="D12" s="101">
         <v>1</v>
@@ -56607,12 +56607,12 @@
       </c>
       <c r="G12" s="101"/>
       <c r="H12" s="102" t="s">
-        <v>1973</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="103" t="s">
-        <v>2054</v>
+        <v>2061</v>
       </c>
       <c r="C13" s="104" t="s">
         <v>1222</v>
@@ -56628,15 +56628,15 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="105" t="s">
-        <v>2055</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="103" t="s">
-        <v>2056</v>
+        <v>2063</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>2057</v>
+        <v>2064</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -56649,15 +56649,15 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="105" t="s">
-        <v>2058</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="103" t="s">
-        <v>2059</v>
+        <v>2066</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D15" s="4">
         <v>19</v>
@@ -56670,15 +56670,15 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="105" t="s">
-        <v>2060</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B16" s="103" t="s">
-        <v>2061</v>
+        <v>2068</v>
       </c>
       <c r="C16" s="104" t="s">
-        <v>2057</v>
+        <v>2064</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -56691,7 +56691,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="110" t="s">
-        <v>2062</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -56712,12 +56712,12 @@
       </c>
       <c r="G17" s="108"/>
       <c r="H17" s="109" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="186" t="s">
-        <v>2063</v>
+        <v>2070</v>
       </c>
       <c r="C18" s="191"/>
       <c r="D18" s="187"/>
@@ -56728,10 +56728,10 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="99" t="s">
-        <v>2046</v>
+        <v>2053</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>2047</v>
+        <v>2054</v>
       </c>
       <c r="D19" s="101">
         <v>1</v>
@@ -56744,15 +56744,15 @@
       </c>
       <c r="G19" s="101"/>
       <c r="H19" s="102" t="s">
-        <v>2064</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="103" t="s">
-        <v>2065</v>
+        <v>2072</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>2066</v>
+        <v>2073</v>
       </c>
       <c r="D20" s="4">
         <v>9</v>
@@ -56765,15 +56765,15 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="105" t="s">
-        <v>2067</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="103" t="s">
-        <v>2068</v>
+        <v>2075</v>
       </c>
       <c r="C21" s="104" t="s">
-        <v>2066</v>
+        <v>2073</v>
       </c>
       <c r="D21" s="4">
         <v>9</v>
@@ -56786,15 +56786,15 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="105" t="s">
-        <v>2038</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="111" t="s">
-        <v>2069</v>
+        <v>2076</v>
       </c>
       <c r="C22" s="112" t="s">
-        <v>2070</v>
+        <v>2077</v>
       </c>
       <c r="D22" s="113">
         <v>41</v>
@@ -56807,7 +56807,7 @@
       </c>
       <c r="G22" s="113"/>
       <c r="H22" s="105" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
@@ -56973,7 +56973,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="162" t="s">
-        <v>2071</v>
+        <v>2078</v>
       </c>
       <c r="C1" s="163"/>
       <c r="D1" s="163"/>
@@ -56984,7 +56984,7 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>2072</v>
+        <v>2079</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -57019,10 +57019,10 @@
         <v>1218</v>
       </c>
       <c r="G4" s="168" t="s">
-        <v>1948</v>
+        <v>1955</v>
       </c>
       <c r="H4" s="168" t="s">
-        <v>1949</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -57047,7 +57047,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="165" t="s">
-        <v>1950</v>
+        <v>1957</v>
       </c>
       <c r="C7" s="166"/>
       <c r="D7" s="198"/>
@@ -57058,10 +57058,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>2073</v>
+        <v>2080</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -57076,15 +57076,15 @@
         <v>602</v>
       </c>
       <c r="H8" s="94" t="s">
-        <v>2074</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>2075</v>
+        <v>2082</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2076</v>
+        <v>2083</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -57099,7 +57099,7 @@
         <v>602</v>
       </c>
       <c r="H9" s="93" t="s">
-        <v>2077</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -57107,7 +57107,7 @@
         <v>1219</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2078</v>
+        <v>2085</v>
       </c>
       <c r="D10" s="4">
         <v>291</v>
@@ -57122,7 +57122,7 @@
         <v>602</v>
       </c>
       <c r="H10" s="96" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -57138,10 +57138,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>2073</v>
+        <v>2080</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -57156,12 +57156,12 @@
         <v>602</v>
       </c>
       <c r="H12" s="96" t="s">
-        <v>1973</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>2079</v>
+        <v>2086</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>99</v>
@@ -57186,10 +57186,10 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>2080</v>
+        <v>2087</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="D14" s="4">
         <v>19</v>
@@ -57206,15 +57206,15 @@
         <v>602</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>1978</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>2082</v>
+        <v>2089</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="D15" s="4">
         <v>19</v>
@@ -57231,12 +57231,12 @@
         <v>602</v>
       </c>
       <c r="H15" s="93" t="s">
-        <v>2083</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>2084</v>
+        <v>2091</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>391</v>
@@ -57256,12 +57256,12 @@
         <v>602</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>1981</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>2085</v>
+        <v>2092</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>391</v>
@@ -57286,7 +57286,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>2086</v>
+        <v>2093</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>391</v>
@@ -57306,12 +57306,12 @@
         <v>602</v>
       </c>
       <c r="H18" s="93" t="s">
-        <v>2087</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="49" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>2088</v>
+        <v>2095</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -57331,12 +57331,12 @@
         <v>602</v>
       </c>
       <c r="H19" s="95" t="s">
-        <v>2089</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>2090</v>
+        <v>2097</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>100</v>
@@ -57356,15 +57356,15 @@
         <v>602</v>
       </c>
       <c r="H20" s="95" t="s">
-        <v>2091</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>2092</v>
+        <v>2099</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2093</v>
+        <v>2100</v>
       </c>
       <c r="D21" s="4">
         <v>23</v>
@@ -57386,10 +57386,10 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>2094</v>
+        <v>2101</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="D22" s="4">
         <v>40</v>
@@ -57406,15 +57406,15 @@
         <v>602</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>2096</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="169" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>2097</v>
+        <v>2104</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2098</v>
+        <v>2105</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -57431,12 +57431,12 @@
         <v>602</v>
       </c>
       <c r="H23" s="95" t="s">
-        <v>2099</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="37" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>2100</v>
+        <v>2107</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>17</v>
@@ -57456,12 +57456,12 @@
         <v>602</v>
       </c>
       <c r="H24" s="95" t="s">
-        <v>2101</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>2102</v>
+        <v>2109</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>1247</v>
@@ -57484,10 +57484,10 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="37" t="s">
-        <v>2103</v>
+        <v>2110</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>2104</v>
+        <v>2111</v>
       </c>
       <c r="D26" s="4">
         <v>7</v>
@@ -57507,10 +57507,10 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="37" t="s">
-        <v>2103</v>
+        <v>2110</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="D27" s="4">
         <v>40</v>
@@ -57532,7 +57532,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>2105</v>
+        <v>2112</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>291</v>
@@ -57555,7 +57555,7 @@
     </row>
     <row r="29" spans="2:8" ht="25" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>2106</v>
+        <v>2113</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>17</v>
@@ -57575,12 +57575,12 @@
         <v>602</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>2107</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>2108</v>
+        <v>2115</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>390</v>
@@ -57603,7 +57603,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>17</v>
@@ -57623,12 +57623,12 @@
         <v>602</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>2110</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>2111</v>
+        <v>2118</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>441</v>
@@ -57651,10 +57651,10 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>2112</v>
+        <v>2119</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="D33" s="4">
         <v>19</v>
@@ -57677,7 +57677,7 @@
         <v>1219</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2113</v>
+        <v>2120</v>
       </c>
       <c r="D34" s="4">
         <v>81</v>
@@ -57697,7 +57697,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="165" t="s">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="C35" s="166"/>
       <c r="D35" s="198"/>
@@ -57708,7 +57708,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>2073</v>
+        <v>2080</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>1225</v>
@@ -57726,15 +57726,15 @@
         <v>602</v>
       </c>
       <c r="H36" s="96" t="s">
-        <v>2041</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>2114</v>
+        <v>2121</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2115</v>
+        <v>2122</v>
       </c>
       <c r="D37" s="4">
         <v>17</v>
@@ -57749,15 +57749,15 @@
         <v>602</v>
       </c>
       <c r="H37" s="96" t="s">
-        <v>2116</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>2117</v>
+        <v>2124</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2115</v>
+        <v>2122</v>
       </c>
       <c r="D38" s="4">
         <v>17</v>
@@ -57772,7 +57772,7 @@
         <v>602</v>
       </c>
       <c r="H38" s="96" t="s">
-        <v>2118</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -57780,7 +57780,7 @@
         <v>1219</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2119</v>
+        <v>2126</v>
       </c>
       <c r="D39" s="4">
         <v>265</v>
@@ -57795,7 +57795,7 @@
         <v>602</v>
       </c>
       <c r="H39" s="96" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
   </sheetData>
@@ -57836,7 +57836,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="162" t="s">
-        <v>2205</v>
+        <v>2212</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
@@ -57847,7 +57847,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -57882,10 +57882,10 @@
         <v>1218</v>
       </c>
       <c r="F4" s="168" t="s">
-        <v>1948</v>
+        <v>1955</v>
       </c>
       <c r="G4" s="168" t="s">
-        <v>1949</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -57910,7 +57910,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="165" t="s">
-        <v>1950</v>
+        <v>1957</v>
       </c>
       <c r="B7" s="166"/>
       <c r="C7" s="198"/>
@@ -57921,7 +57921,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>2232</v>
+        <v>2239</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>441</v>
@@ -57939,7 +57939,7 @@
         <v>602</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>2234</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -57947,7 +57947,7 @@
         <v>1219</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2233</v>
+        <v>2240</v>
       </c>
       <c r="C9" s="4">
         <v>141</v>
@@ -57976,7 +57976,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>99</v>
@@ -57999,10 +57999,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="C12" s="4">
         <v>19</v>
@@ -58017,12 +58017,12 @@
         <v>602</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2224</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1198</v>
@@ -58040,15 +58040,15 @@
         <v>602</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2235</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2216</v>
+        <v>2223</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
@@ -58063,15 +58063,15 @@
         <v>602</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2236</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2217</v>
+        <v>2224</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -58086,7 +58086,7 @@
         <v>602</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2237</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -58094,7 +58094,7 @@
         <v>1219</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2115</v>
+        <v>2122</v>
       </c>
       <c r="C16" s="4">
         <v>17</v>
@@ -58110,10 +58110,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="C17" s="4">
         <v>19</v>
@@ -58128,12 +58128,12 @@
         <v>602</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>2003</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>99</v>
@@ -58152,15 +58152,15 @@
         <v>602</v>
       </c>
       <c r="G18" s="96" t="s">
-        <v>2225</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2218</v>
+        <v>2225</v>
       </c>
       <c r="C19" s="4">
         <v>60</v>
@@ -58176,15 +58176,15 @@
         <v>602</v>
       </c>
       <c r="G19" s="96" t="s">
-        <v>2226</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
@@ -58200,7 +58200,7 @@
         <v>602</v>
       </c>
       <c r="G20" s="96" t="s">
-        <v>2227</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -58208,7 +58208,7 @@
         <v>1219</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2219</v>
+        <v>2226</v>
       </c>
       <c r="C21" s="4">
         <v>48</v>
@@ -58227,7 +58227,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="165" t="s">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="B22" s="166"/>
       <c r="C22" s="198"/>
@@ -58238,10 +58238,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2222</v>
+        <v>2229</v>
       </c>
       <c r="C23" s="4">
         <v>17</v>
@@ -58256,15 +58256,15 @@
         <v>602</v>
       </c>
       <c r="G23" s="96" t="s">
-        <v>2228</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>2221</v>
+        <v>2228</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2222</v>
+        <v>2229</v>
       </c>
       <c r="C24" s="4">
         <v>17</v>
@@ -58279,7 +58279,7 @@
         <v>602</v>
       </c>
       <c r="G24" s="96" t="s">
-        <v>2229</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -58287,7 +58287,7 @@
         <v>1219</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2223</v>
+        <v>2230</v>
       </c>
       <c r="C25" s="4">
         <v>115</v>
@@ -58341,7 +58341,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="162" t="s">
-        <v>2230</v>
+        <v>2237</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
@@ -58352,7 +58352,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2231</v>
+        <v>2238</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -58387,10 +58387,10 @@
         <v>1218</v>
       </c>
       <c r="F4" s="168" t="s">
-        <v>1948</v>
+        <v>1955</v>
       </c>
       <c r="G4" s="168" t="s">
-        <v>1949</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -58415,7 +58415,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="165" t="s">
-        <v>1950</v>
+        <v>1957</v>
       </c>
       <c r="B7" s="166"/>
       <c r="C7" s="198"/>
@@ -58426,10 +58426,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>2238</v>
+        <v>2245</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -58444,15 +58444,15 @@
         <v>602</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>2074</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>2240</v>
+        <v>2247</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2076</v>
+        <v>2083</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -58468,7 +58468,7 @@
         <v>602</v>
       </c>
       <c r="G9" s="93" t="s">
-        <v>2077</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -58476,7 +58476,7 @@
         <v>1219</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2078</v>
+        <v>2085</v>
       </c>
       <c r="C10" s="4">
         <v>849</v>
@@ -58492,7 +58492,7 @@
         <v>602</v>
       </c>
       <c r="G10" s="96" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -58508,10 +58508,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>2275</v>
+        <v>2282</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="C12" s="4">
         <v>19</v>
@@ -58532,7 +58532,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>2276</v>
+        <v>2283</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
@@ -58551,15 +58551,15 @@
         <v>602</v>
       </c>
       <c r="G13" s="93" t="s">
-        <v>1978</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>2241</v>
+        <v>2248</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="C14" s="4">
         <v>19</v>
@@ -58575,15 +58575,15 @@
         <v>602</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>2083</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>2242</v>
+        <v>2249</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C15" s="4">
         <v>40</v>
@@ -58599,15 +58599,15 @@
         <v>602</v>
       </c>
       <c r="G15" s="159" t="s">
-        <v>2281</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>2243</v>
+        <v>2250</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C16" s="4">
         <v>40</v>
@@ -58623,15 +58623,15 @@
         <v>602</v>
       </c>
       <c r="G16" s="159" t="s">
-        <v>2282</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>2244</v>
+        <v>2251</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C17" s="4">
         <v>40</v>
@@ -58647,15 +58647,15 @@
         <v>602</v>
       </c>
       <c r="G17" s="159" t="s">
-        <v>2283</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>2245</v>
+        <v>2252</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C18" s="4">
         <v>40</v>
@@ -58671,15 +58671,15 @@
         <v>602</v>
       </c>
       <c r="G18" s="93" t="s">
-        <v>2306</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>2246</v>
+        <v>2253</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C19" s="4">
         <v>40</v>
@@ -58695,15 +58695,15 @@
         <v>602</v>
       </c>
       <c r="G19" s="93" t="s">
-        <v>2307</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>2247</v>
+        <v>2254</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C20" s="4">
         <v>40</v>
@@ -58719,15 +58719,15 @@
         <v>602</v>
       </c>
       <c r="G20" s="95" t="s">
-        <v>2308</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>2248</v>
+        <v>2255</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C21" s="4">
         <v>40</v>
@@ -58743,15 +58743,15 @@
         <v>602</v>
       </c>
       <c r="G21" s="95" t="s">
-        <v>2309</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>2249</v>
+        <v>2256</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C22" s="4">
         <v>40</v>
@@ -58767,15 +58767,15 @@
         <v>602</v>
       </c>
       <c r="G22" s="93" t="s">
-        <v>2310</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>2250</v>
+        <v>2257</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2277</v>
+        <v>2284</v>
       </c>
       <c r="C23" s="4">
         <v>30</v>
@@ -58791,15 +58791,15 @@
         <v>602</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>2311</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>2251</v>
+        <v>2258</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C24" s="4">
         <v>40</v>
@@ -58815,15 +58815,15 @@
         <v>602</v>
       </c>
       <c r="G24" s="160" t="s">
-        <v>2284</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>2252</v>
+        <v>2259</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C25" s="4">
         <v>40</v>
@@ -58839,15 +58839,15 @@
         <v>602</v>
       </c>
       <c r="G25" s="160" t="s">
-        <v>2285</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>2253</v>
+        <v>2260</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2278</v>
+        <v>2285</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
@@ -58863,12 +58863,12 @@
         <v>602</v>
       </c>
       <c r="G26" s="160" t="s">
-        <v>2286</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
-        <v>2254</v>
+        <v>2261</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>99</v>
@@ -58887,15 +58887,15 @@
         <v>602</v>
       </c>
       <c r="G27" s="160" t="s">
-        <v>2287</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
-        <v>2255</v>
+        <v>2262</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C28" s="4">
         <v>40</v>
@@ -58911,12 +58911,12 @@
         <v>602</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>2312</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>2256</v>
+        <v>2263</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>18</v>
@@ -58935,12 +58935,12 @@
         <v>602</v>
       </c>
       <c r="G29" s="160" t="s">
-        <v>2288</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>18</v>
@@ -58959,12 +58959,12 @@
         <v>602</v>
       </c>
       <c r="G30" s="160" t="s">
-        <v>2289</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>2259</v>
+        <v>2266</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>18</v>
@@ -58980,12 +58980,12 @@
         <v>602</v>
       </c>
       <c r="G31" s="160" t="s">
-        <v>2290</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>2260</v>
+        <v>2267</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>61</v>
@@ -59004,12 +59004,12 @@
         <v>602</v>
       </c>
       <c r="G32" s="160" t="s">
-        <v>2291</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>2261</v>
+        <v>2268</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>99</v>
@@ -59028,12 +59028,12 @@
         <v>602</v>
       </c>
       <c r="G33" s="160" t="s">
-        <v>2292</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>2262</v>
+        <v>2269</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
@@ -59052,12 +59052,12 @@
         <v>602</v>
       </c>
       <c r="G34" s="160" t="s">
-        <v>2293</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>2263</v>
+        <v>2270</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>17</v>
@@ -59076,15 +59076,15 @@
         <v>602</v>
       </c>
       <c r="G35" s="160" t="s">
-        <v>2294</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2218</v>
+        <v>2225</v>
       </c>
       <c r="C36" s="4">
         <v>60</v>
@@ -59100,12 +59100,12 @@
         <v>602</v>
       </c>
       <c r="G36" s="160" t="s">
-        <v>2295</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>2265</v>
+        <v>2272</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>61</v>
@@ -59124,12 +59124,12 @@
         <v>602</v>
       </c>
       <c r="G37" s="160" t="s">
-        <v>2296</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>2266</v>
+        <v>2273</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>391</v>
@@ -59148,15 +59148,15 @@
         <v>602</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>2297</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>2267</v>
+        <v>2274</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2279</v>
+        <v>2286</v>
       </c>
       <c r="C39" s="4">
         <v>9</v>
@@ -59172,15 +59172,15 @@
         <v>602</v>
       </c>
       <c r="G39" s="160" t="s">
-        <v>2298</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>2268</v>
+        <v>2275</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2280</v>
+        <v>2287</v>
       </c>
       <c r="C40" s="4">
         <v>50</v>
@@ -59196,15 +59196,15 @@
         <v>602</v>
       </c>
       <c r="G40" s="160" t="s">
-        <v>2299</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>2269</v>
+        <v>2276</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2280</v>
+        <v>2287</v>
       </c>
       <c r="C41" s="4">
         <v>50</v>
@@ -59220,12 +59220,12 @@
         <v>602</v>
       </c>
       <c r="G41" s="160" t="s">
-        <v>2300</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>2270</v>
+        <v>2277</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>441</v>
@@ -59244,15 +59244,15 @@
         <v>602</v>
       </c>
       <c r="G42" s="160" t="s">
-        <v>2301</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>2271</v>
+        <v>2278</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="C43" s="4">
         <v>19</v>
@@ -59268,12 +59268,12 @@
         <v>602</v>
       </c>
       <c r="G43" s="160" t="s">
-        <v>2302</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>2272</v>
+        <v>2279</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>390</v>
@@ -59292,12 +59292,12 @@
         <v>602</v>
       </c>
       <c r="G44" s="160" t="s">
-        <v>2303</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>2273</v>
+        <v>2280</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>390</v>
@@ -59316,12 +59316,12 @@
         <v>602</v>
       </c>
       <c r="G45" s="160" t="s">
-        <v>2304</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>2274</v>
+        <v>2281</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>18</v>
@@ -59340,7 +59340,7 @@
         <v>602</v>
       </c>
       <c r="G46" s="160" t="s">
-        <v>2305</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -59348,7 +59348,7 @@
         <v>1219</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="C47" s="4">
         <v>19</v>
@@ -59364,12 +59364,12 @@
         <v>602</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="165" t="s">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="B48" s="166"/>
       <c r="C48" s="198"/>
@@ -59380,7 +59380,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>2238</v>
+        <v>2245</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>1225</v>
@@ -59398,15 +59398,15 @@
         <v>602</v>
       </c>
       <c r="G49" s="96" t="s">
-        <v>2041</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>2239</v>
+        <v>2246</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2115</v>
+        <v>2122</v>
       </c>
       <c r="C50" s="4">
         <v>17</v>
@@ -59421,15 +59421,15 @@
         <v>602</v>
       </c>
       <c r="G50" s="96" t="s">
-        <v>2116</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>2258</v>
+        <v>2265</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2115</v>
+        <v>2122</v>
       </c>
       <c r="C51" s="4">
         <v>17</v>
@@ -59444,7 +59444,7 @@
         <v>602</v>
       </c>
       <c r="G51" s="96" t="s">
-        <v>2118</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -59452,7 +59452,7 @@
         <v>1219</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2119</v>
+        <v>2126</v>
       </c>
       <c r="C52" s="4">
         <v>265</v>
@@ -59467,7 +59467,7 @@
         <v>602</v>
       </c>
       <c r="G52" s="96" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
   </sheetData>
@@ -60019,7 +60019,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="162" t="s">
-        <v>1946</v>
+        <v>1953</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -60030,7 +60030,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>1947</v>
+        <v>1954</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -60065,10 +60065,10 @@
         <v>1218</v>
       </c>
       <c r="G5" s="168" t="s">
-        <v>1948</v>
+        <v>1955</v>
       </c>
       <c r="H5" s="168" t="s">
-        <v>1949</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -60093,7 +60093,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="165" t="s">
-        <v>1950</v>
+        <v>1957</v>
       </c>
       <c r="C8" s="166"/>
       <c r="D8" s="198"/>
@@ -60104,10 +60104,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>1951</v>
+        <v>1958</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -60122,15 +60122,15 @@
         <v>602</v>
       </c>
       <c r="H9" s="94" t="s">
-        <v>1953</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>1954</v>
+        <v>1961</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1955</v>
+        <v>1962</v>
       </c>
       <c r="D10" s="4">
         <v>8</v>
@@ -60145,15 +60145,15 @@
         <v>602</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>1956</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>1957</v>
+        <v>1964</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1958</v>
+        <v>1965</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
@@ -60168,15 +60168,15 @@
         <v>602</v>
       </c>
       <c r="H11" s="93" t="s">
-        <v>1959</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="144" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>1960</v>
+        <v>1967</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1961</v>
+        <v>1968</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
@@ -60191,7 +60191,7 @@
         <v>602</v>
       </c>
       <c r="H12" s="95" t="s">
-        <v>1962</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
@@ -60199,7 +60199,7 @@
         <v>1219</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1963</v>
+        <v>1970</v>
       </c>
       <c r="D13" s="4">
         <v>250</v>
@@ -60214,12 +60214,12 @@
         <v>602</v>
       </c>
       <c r="H13" s="96" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="165" t="s">
-        <v>1965</v>
+        <v>1972</v>
       </c>
       <c r="C14" s="166"/>
       <c r="D14" s="198"/>
@@ -60230,10 +60230,10 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>1951</v>
+        <v>1958</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -60248,15 +60248,15 @@
         <v>602</v>
       </c>
       <c r="H15" s="94" t="s">
-        <v>1966</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>1967</v>
+        <v>1974</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1968</v>
+        <v>1975</v>
       </c>
       <c r="D16" s="4">
         <v>43</v>
@@ -60271,12 +60271,12 @@
         <v>602</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>1969</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>1970</v>
+        <v>1977</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>1220</v>
@@ -60294,7 +60294,7 @@
         <v>602</v>
       </c>
       <c r="H17" s="93" t="s">
-        <v>1971</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -60302,7 +60302,7 @@
         <v>1219</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="D18" s="4">
         <v>226</v>
@@ -60317,7 +60317,7 @@
         <v>602</v>
       </c>
       <c r="H18" s="96" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
@@ -60333,10 +60333,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>1951</v>
+        <v>1958</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -60351,15 +60351,15 @@
         <v>602</v>
       </c>
       <c r="H20" s="96" t="s">
-        <v>1973</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="36" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -60374,12 +60374,12 @@
         <v>602</v>
       </c>
       <c r="H21" s="95" t="s">
-        <v>1975</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="C22" s="4">
         <v>999</v>
@@ -60402,7 +60402,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
-        <v>1977</v>
+        <v>1984</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>1222</v>
@@ -60420,15 +60420,15 @@
         <v>602</v>
       </c>
       <c r="H23" s="93" t="s">
-        <v>1978</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="D24" s="4">
         <v>5</v>
@@ -60443,15 +60443,15 @@
         <v>602</v>
       </c>
       <c r="H24" s="93" t="s">
-        <v>1981</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
-        <v>1982</v>
+        <v>1989</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1983</v>
+        <v>1990</v>
       </c>
       <c r="D25" s="4">
         <v>16</v>
@@ -60466,15 +60466,15 @@
         <v>602</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1984</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="120" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
@@ -60489,15 +60489,15 @@
         <v>602</v>
       </c>
       <c r="H26" s="95" t="s">
-        <v>1987</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="D27" s="4">
         <v>17</v>
@@ -60512,15 +60512,15 @@
         <v>602</v>
       </c>
       <c r="H27" s="93" t="s">
-        <v>1990</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="D28" s="4">
         <v>8</v>
@@ -60535,15 +60535,15 @@
         <v>602</v>
       </c>
       <c r="H28" s="93" t="s">
-        <v>1993</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="D29" s="4">
         <v>18</v>
@@ -60558,12 +60558,12 @@
         <v>602</v>
       </c>
       <c r="H29" s="93" t="s">
-        <v>1996</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>1223</v>
@@ -60581,15 +60581,15 @@
         <v>602</v>
       </c>
       <c r="H30" s="95" t="s">
-        <v>1998</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="D31" s="4">
         <v>3</v>
@@ -60609,10 +60609,10 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D32" s="4">
         <v>19</v>
@@ -60627,12 +60627,12 @@
         <v>602</v>
       </c>
       <c r="H32" s="93" t="s">
-        <v>2003</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1224</v>
@@ -60650,15 +60650,15 @@
         <v>602</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>2005</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D34" s="4">
         <v>19</v>
@@ -60673,15 +60673,15 @@
         <v>602</v>
       </c>
       <c r="H34" s="93" t="s">
-        <v>2007</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="D35" s="4">
         <v>6</v>
@@ -60696,15 +60696,15 @@
         <v>602</v>
       </c>
       <c r="H35" s="93" t="s">
-        <v>2010</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="37" t="s">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D36" s="4">
         <v>4</v>
@@ -60719,15 +60719,15 @@
         <v>602</v>
       </c>
       <c r="H36" s="93" t="s">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D37" s="4">
         <v>4</v>
@@ -60742,15 +60742,15 @@
         <v>602</v>
       </c>
       <c r="H37" s="93" t="s">
-        <v>2015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="D38" s="4">
         <v>30</v>
@@ -60765,15 +60765,15 @@
         <v>602</v>
       </c>
       <c r="H38" s="93" t="s">
-        <v>2018</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
-        <v>2019</v>
+        <v>2026</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2020</v>
+        <v>2027</v>
       </c>
       <c r="D39" s="4">
         <v>49</v>
@@ -60788,15 +60788,15 @@
         <v>602</v>
       </c>
       <c r="H39" s="96" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
-        <v>2022</v>
+        <v>2029</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>2020</v>
+        <v>2027</v>
       </c>
       <c r="D40" s="4">
         <v>19</v>
@@ -60811,15 +60811,15 @@
         <v>602</v>
       </c>
       <c r="H40" s="96" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2024</v>
+        <v>2031</v>
       </c>
       <c r="D41" s="4">
         <v>8</v>
@@ -60834,15 +60834,15 @@
         <v>602</v>
       </c>
       <c r="H41" s="93" t="s">
-        <v>2025</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
-        <v>2026</v>
+        <v>2033</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>2027</v>
+        <v>2034</v>
       </c>
       <c r="D42" s="4">
         <v>11</v>
@@ -60857,15 +60857,15 @@
         <v>602</v>
       </c>
       <c r="H42" s="96" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
-        <v>2028</v>
+        <v>2035</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2020</v>
+        <v>2027</v>
       </c>
       <c r="D43" s="4">
         <v>15</v>
@@ -60880,12 +60880,12 @@
         <v>602</v>
       </c>
       <c r="H43" s="96" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
-        <v>2029</v>
+        <v>2036</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>874</v>
@@ -60903,15 +60903,15 @@
         <v>602</v>
       </c>
       <c r="H44" s="96" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>2030</v>
+        <v>2037</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>2031</v>
+        <v>2038</v>
       </c>
       <c r="D45" s="4">
         <v>15</v>
@@ -60926,15 +60926,15 @@
         <v>602</v>
       </c>
       <c r="H45" s="96" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>2032</v>
+        <v>2039</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>2033</v>
+        <v>2040</v>
       </c>
       <c r="D46" s="4">
         <v>15</v>
@@ -60949,12 +60949,12 @@
         <v>602</v>
       </c>
       <c r="H46" s="96" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="165" t="s">
-        <v>2034</v>
+        <v>2041</v>
       </c>
       <c r="C47" s="166"/>
       <c r="D47" s="166"/>
@@ -60965,7 +60965,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>1951</v>
+        <v>1958</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>1225</v>
@@ -60983,15 +60983,15 @@
         <v>602</v>
       </c>
       <c r="H48" s="96" t="s">
-        <v>2035</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>2036</v>
+        <v>2043</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>2037</v>
+        <v>2044</v>
       </c>
       <c r="D49" s="4">
         <v>11</v>
@@ -61006,7 +61006,7 @@
         <v>602</v>
       </c>
       <c r="H49" s="93" t="s">
-        <v>2038</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
@@ -61014,7 +61014,7 @@
         <v>1219</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>2039</v>
+        <v>2046</v>
       </c>
       <c r="D50" s="4">
         <v>263</v>
@@ -61029,12 +61029,12 @@
         <v>602</v>
       </c>
       <c r="H50" s="96" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="165" t="s">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="C51" s="166"/>
       <c r="D51" s="198"/>
@@ -61045,7 +61045,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
-        <v>1951</v>
+        <v>1958</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>1225</v>
@@ -61063,7 +61063,7 @@
         <v>602</v>
       </c>
       <c r="H52" s="96" t="s">
-        <v>2041</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.15">
@@ -61071,7 +61071,7 @@
         <v>1219</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>2042</v>
+        <v>2049</v>
       </c>
       <c r="D53" s="4">
         <v>274</v>
@@ -61086,11 +61086,16 @@
         <v>602</v>
       </c>
       <c r="H53" s="96" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B51:H51"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -61099,11 +61104,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B51:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -61465,8 +61465,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
-      <selection activeCell="B2" sqref="B2"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
+      <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
@@ -61482,8 +61482,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
-      <selection activeCell="H14" sqref="H14"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
@@ -62060,8 +62060,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A11">
+      <selection activeCell="H26" sqref="H26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
@@ -62077,8 +62077,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A11">
-      <selection activeCell="H26" sqref="H26"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
@@ -62622,8 +62622,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A4">
+      <selection activeCell="H9" sqref="H9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter>
@@ -62639,8 +62639,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A4">
-      <selection activeCell="H9" sqref="H9"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter>
@@ -63462,14 +63462,13 @@
   </sheetData>
   <autoFilter ref="B5:H42"/>
   <customSheetViews>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A10">
+      <selection activeCell="H37" sqref="H37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:H1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A19">
       <selection activeCell="C51" sqref="C51"/>
@@ -63479,13 +63478,14 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A10">
-      <selection activeCell="H37" sqref="H37"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:H1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -64101,14 +64101,13 @@
   </sheetData>
   <autoFilter ref="B5:I29"/>
   <customSheetViews>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A16">
+      <selection activeCell="E34" sqref="E34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:I1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A19">
       <selection activeCell="I29" sqref="I29"/>
@@ -64118,13 +64117,14 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A16">
-      <selection activeCell="E34" sqref="E34"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:I1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -65518,10 +65518,26 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A58">
+      <selection activeCell="I11" sqref="I11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <headerFooter>
+        <oddFooter>&amp;LCapital One Confidential</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A49">
+      <selection activeCell="E31" sqref="E31"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <headerFooter>
+        <oddFooter>&amp;LCapital One Confidential</oddFooter>
+      </headerFooter>
+    </customSheetView>
     <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" filter="1" showAutoFilter="1">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
@@ -65539,22 +65555,6 @@
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A49">
-      <selection activeCell="E31" sqref="E31"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <headerFooter>
-        <oddFooter>&amp;LCapital One Confidential</oddFooter>
-      </headerFooter>
-    </customSheetView>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A58">
-      <selection activeCell="I11" sqref="I11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <headerFooter>
-        <oddFooter>&amp;LCapital One Confidential</oddFooter>
-      </headerFooter>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -65602,7 +65602,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>2313</v>
+        <v>2320</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -66071,14 +66071,13 @@
   </sheetData>
   <autoFilter ref="B5:H27"/>
   <customSheetViews>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
+      <selection activeCell="I19" sqref="I19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:H1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}">
       <selection activeCell="I19" sqref="I19"/>
@@ -66088,13 +66087,14 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
-      <selection activeCell="I19" sqref="I19"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:H1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/src/test/resources/rewards_platform/test_data/LMS File Record Layouts.xlsx
+++ b/src/test/resources/rewards_platform/test_data/LMS File Record Layouts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariatkacheva/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariatkacheva/Documents/workspace/rewards_platform/src/test/resources/rewards_platform/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="460" windowWidth="11380" windowHeight="5060" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="-37760" yWindow="-1100" windowWidth="28800" windowHeight="16240" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="QPQP" sheetId="1" r:id="rId1"/>
@@ -84,11 +84,11 @@
     <definedName name="Z_DA9EBB5A_EE92_41AE_B134_012594BFFC70_.wvu.FilterData" localSheetId="1" hidden="1">QPQB!$C$6:$I$131</definedName>
     <definedName name="Z_DA9EBB5A_EE92_41AE_B134_012594BFFC70_.wvu.FilterData" localSheetId="0" hidden="1">QPQP!$B$5:$H$184</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="bjutta - Personal View" guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="6"/>
+    <customWorkbookView name="gpadhiar - Personal View" guid="{99249448-FD30-4600-8F88-D8162E1600C3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="7"/>
     <customWorkbookView name="jdutta - Personal View" guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="1"/>
-    <customWorkbookView name="gpadhiar - Personal View" guid="{99249448-FD30-4600-8F88-D8162E1600C3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="7"/>
-    <customWorkbookView name="bjutta - Personal View" guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" activeSheetId="6"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -13976,9 +13976,9 @@
   </sheetData>
   <autoFilter ref="B5:H184"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1">
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter>
@@ -13996,9 +13996,9 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter>
@@ -15211,13 +15211,14 @@
   </sheetData>
   <autoFilter ref="B5:H35"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A13">
-      <selection activeCell="I28" sqref="I28"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:H1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A10">
       <selection activeCell="C26" sqref="C26"/>
@@ -15227,14 +15228,13 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A13">
+      <selection activeCell="I28" sqref="I28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:H1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -22527,7 +22527,7 @@
   <dimension ref="A1:J2333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36662,8 +36662,8 @@
   </sheetData>
   <autoFilter ref="C6:I131"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1" topLeftCell="A7">
-      <selection activeCell="I19" sqref="I19:I20"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="I11" sqref="I11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter>
@@ -36680,8 +36680,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="I11" sqref="I11"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" showAutoFilter="1" topLeftCell="A7">
+      <selection activeCell="I19" sqref="I19:I20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter>
@@ -61091,11 +61091,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B51:H51"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -61104,6 +61099,11 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B51:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -61465,8 +61465,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
-      <selection activeCell="H14" sqref="H14"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
@@ -61482,8 +61482,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
-      <selection activeCell="B2" sqref="B2"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
+      <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
@@ -62060,8 +62060,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A11">
-      <selection activeCell="H26" sqref="H26"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
@@ -62077,8 +62077,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A11">
+      <selection activeCell="H26" sqref="H26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
@@ -62622,8 +62622,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A4">
-      <selection activeCell="H9" sqref="H9"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter>
@@ -62639,8 +62639,8 @@
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A4">
+      <selection activeCell="H9" sqref="H9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter>
@@ -63462,13 +63462,14 @@
   </sheetData>
   <autoFilter ref="B5:H42"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A10">
-      <selection activeCell="H37" sqref="H37"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:H1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A19">
       <selection activeCell="C51" sqref="C51"/>
@@ -63478,14 +63479,13 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A10">
+      <selection activeCell="H37" sqref="H37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:H1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -64101,13 +64101,14 @@
   </sheetData>
   <autoFilter ref="B5:I29"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A16">
-      <selection activeCell="E34" sqref="E34"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:I1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A19">
       <selection activeCell="I29" sqref="I29"/>
@@ -64117,14 +64118,13 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A16">
+      <selection activeCell="E34" sqref="E34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:I1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -65518,26 +65518,10 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A58">
-      <selection activeCell="I11" sqref="I11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-      <headerFooter>
-        <oddFooter>&amp;LCapital One Confidential</oddFooter>
-      </headerFooter>
-    </customSheetView>
-    <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A49">
-      <selection activeCell="E31" sqref="E31"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <headerFooter>
-        <oddFooter>&amp;LCapital One Confidential</oddFooter>
-      </headerFooter>
-    </customSheetView>
     <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" filter="1" showAutoFilter="1">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
@@ -65555,6 +65539,22 @@
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}" topLeftCell="A49">
+      <selection activeCell="E31" sqref="E31"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <headerFooter>
+        <oddFooter>&amp;LCapital One Confidential</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A58">
+      <selection activeCell="I11" sqref="I11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
+      <headerFooter>
+        <oddFooter>&amp;LCapital One Confidential</oddFooter>
+      </headerFooter>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -66071,13 +66071,14 @@
   </sheetData>
   <autoFilter ref="B5:H27"/>
   <customSheetViews>
-    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
-      <selection activeCell="I19" sqref="I19"/>
+    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:H1"/>
     </customSheetView>
     <customSheetView guid="{99249448-FD30-4600-8F88-D8162E1600C3}">
       <selection activeCell="I19" sqref="I19"/>
@@ -66087,14 +66088,13 @@
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A9143449-51F8-4013-8046-64C4C1DF5386}" showAutoFilter="1">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{6CF6AD5B-3115-4DC4-8567-E2497412C005}" topLeftCell="A7">
+      <selection activeCell="I19" sqref="I19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LCapital One Confidential</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:H1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="9" type="noConversion"/>
